--- a/news_data/2021_07.xlsx
+++ b/news_data/2021_07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,27 +22,102 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 관광 사업 공들이는 진에어, 제주관광공사와 협업 강화</t>
+  </si>
+  <si>
+    <t>"일감 줄어도 지입료는 그대로" 제주도 관광버스 기사들의 눈물</t>
+  </si>
+  <si>
+    <t>이르면 내달 21일 제주도 가는 '무착륙 관광비행' 뜬다</t>
+  </si>
+  <si>
+    <t>송재호 의원 "제주도, 관광방역 인력 채용 전국 최하위"</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 영세 관광사업체 방역‧안전 강화 지원</t>
+  </si>
+  <si>
+    <t>관광객 울리는 '고무줄' 렌터카 요금 잡힐까…제주도, 집중점검</t>
+  </si>
+  <si>
+    <t>관광객 6명 제주도 여행 후 코로나19 확진…道, 방역 조치 위반 여부 조사</t>
+  </si>
+  <si>
+    <t>제주도, 관광 성수기 맞아 방역 위반 행위 단속 강화</t>
+  </si>
+  <si>
+    <t>제주도, 아랍권과 협력…의료·관광분야 질적 성장 모색</t>
+  </si>
+  <si>
+    <t>제주도 관광방역 인력 채용률 18%…전국 최하위</t>
+  </si>
+  <si>
+    <t>“관광지니까 유흥업소 먼저?” 제주도 1순위 접종 대상 논란</t>
+  </si>
+  <si>
+    <t>제주도 거리두기 3단계 격상에 관광업·자영업계 '한숨'</t>
+  </si>
+  <si>
+    <t>돌하루팡, 2021년 제주도렌트카 우수관광사업체 지정</t>
+  </si>
+  <si>
+    <t>강경숙 센터장 "최대 관광지 제주도, 성(性) 관련 전시 관광지 등 종사자들 성...</t>
+  </si>
+  <si>
+    <t>제주도, 거리두기 3단계 속 '방역·관광' 고민 깊어져</t>
+  </si>
+  <si>
+    <t>제주도, 관광지 14개 우수관광사업체 지정</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광체육위원회 영상·문화시설 현장방문</t>
+  </si>
+  <si>
+    <t>‘육지대학’ 동서대 팀이 제주도 관광 창업경진대회 대상 탔네</t>
+  </si>
+  <si>
+    <t>거리두기 4단계? 제주도 가야지…1주새 관광객 3000명↑</t>
+  </si>
+  <si>
+    <t>거리두기 4단계 시행 앞두고 제주도 찾은 관광객들</t>
+  </si>
+  <si>
+    <t>[특징주] 레드캡투어, '관광객 급증' 치솟는 제주도 렌터카 요금에 부각</t>
+  </si>
+  <si>
+    <t>관광개발 투자 유치 혈안이던 제주도 앞으로 확 달라진다</t>
+  </si>
+  <si>
+    <t>[뉴스큐] 수도권 관광객 '북적북적'..."풍선효과 어쩌나" 제주도 긴장</t>
+  </si>
+  <si>
+    <t>[제주] 관광객 몰리는 제주도 코로나 확진자 19명, 비상!</t>
+  </si>
+  <si>
+    <t>[전국네트워크] 여름 휴가철의 제주도, 확진자 '폭증'...관광객 영향 커</t>
+  </si>
+  <si>
+    <t>제주도내 '해바라기 가요주점' 방문자·관광객 등 7일 오후 5시 기준 15명 확...</t>
+  </si>
+  <si>
+    <t>제주도 관광기념품 공모전, 당선작 17점 선정</t>
+  </si>
+  <si>
+    <t>제주도 여행 온 관광객 잇따라 코로나19 확진...누적 1282명</t>
+  </si>
+  <si>
+    <t>[간추린 단신] 제주도, 올 상반기 우수관광사업체 14곳 지정 외</t>
+  </si>
+  <si>
+    <t>제주도 하반기 정기인사...특별자치행정국장-윤진남, 관광국장-김승배</t>
+  </si>
+  <si>
     <t>제주도, 올 상반기 우수관광사업체 14개소 지정</t>
   </si>
   <si>
-    <t>제주도내 '해바라기 가요주점' 방문자·관광객 등 7일 오후 5시 기준 15명 확...</t>
-  </si>
-  <si>
-    <t>제주도 관광기념품 공모전, 당선작 17점 선정</t>
-  </si>
-  <si>
-    <t>제주도 여행 온 관광객 잇따라 코로나19 확진...누적 1282명</t>
-  </si>
-  <si>
-    <t>[간추린 단신] 제주도, 올 상반기 우수관광사업체 14곳 지정 외</t>
-  </si>
-  <si>
     <t>제주도, 관광지.숙박.여행.음식업 14개소 우수관광사업체 지정</t>
   </si>
   <si>
-    <t>제주도 하반기 정기인사...특별자치행정국장-윤진남, 관광국장-김승배</t>
-  </si>
-  <si>
     <t>'한라산1950' 등 제주도관광기념품 공모전 금상</t>
   </si>
   <si>
@@ -52,28 +127,94 @@
     <t>제주도관광협회, 지자체 사업설명회서 건강한 제주여행 토크콘서트로 눈길</t>
   </si>
   <si>
-    <t>제주도, 올 상반기 우수관광사업체 14개소 지정 &lt; 문화 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:19 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 올 상반기 우수관광사업체 14개소 지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 제주도, 올 상반기 우수관광사업체 14개소 지정 기자명 강동우 기자 입력 2021.07.05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광지 10곳·숙박업 1곳·여행업 2곳·음식업 1곳 공모 통해 최종 선정 지정기간 2년 … 지정서·인증패 수여 및 온라인 홍보 등 인센티브 제공 2021년도 상반기 우수관광사업체로 관광지 10곳고 숙박업소 1곳, 여행사 2곳, 음식업 1곳 등 14개가 지정됐다. 제주특별자치도는 5일 올해 상반기 관광지, 숙박업, 여행업, 음식업 등 4개 분야 14개 업체를 우수관광사업체로 지정했다고 밝혔다. 제주도는 자율적 경쟁을 통한 품질 향상 및 서비스 개선 등 관광사업체의 경쟁력 강화를 위해 매년 상·하반기 우수관광사업체를 공모해 지정하고 있다. 제주도는 응모한 관광사업체의 신청서류 등 자격요건을 심사한 후, 전문가들로 구성된 평가위원들의 현장평가 결과 90점 이상 취득한 업체를 대상으로 우수관광사업체 평정위원회 심의를 거쳐 지정하고 있다. 우수관광사업체 지정기간은 2년(2021. 7. 1.~2023. 6. 30.)이다. 14개 업체에는 우수관광사업체 지정서 및 인증패가 수여되며, 홍보지원금 80만원이 지급된다. 제주도는 또한 관광 정보시스템 및 유관기관 홈페이지, SNS(블로그, 인스타그램, 페이스북, 유튜브), 리플릿, 지도 등 홍보물을 통한 홍보 인센티브도 주어진다. 김승배 도 관광국장은 “코로나19 장기화에 따른 관광사업체의 어려운 경영 환경 속에서도 우수한 관광사업체를 발굴해 제주관광에 대한 신뢰도를 확보해 나가겠다”면서  “온라인마켓 탐나오 입점 및 구매 이벤트 등 선정된 업체에 대한 인센티브 확대 등 다양한 지원방안을 모색해 나가겠다”고 덧붙였다 강동우 기자 kdw2312@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도내 '해바라기 가요주점' 방문자·관광객 등 7일 오후 5시 기준 15명 확진 &lt; 뉴스 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-04 10:31 (화) 실시간 뉴스 교황, 푸틴 핵 위협에 "전쟁 멈출 것" 경고 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 문송희, ‘사랑나눔자선콘서트’ 화려한 오프닝 공연 예고 아이피샵, 2022 광주국제아트페어 참여 김해 민간 장기 임대아파트 '용두지구 성원상떼빌' 분양 코요태 빽가, 지석진과 한솥밥 먹는다...컴백 일정은? [이만수의 야구 이야기] 꿈에 그리던 동남아시아 야구 대회 개최 오에스피 공모주 청약일정·수요예측·상장일은? '공모가 8400원 확정' HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 291호(2022-09) 작은 승리 거둔 이준석 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도내 '해바라기 가요주점' 방문자·관광객 등 7일 오후 5시 기준 15명 확진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 제주도내 '해바라기 가요주점' 방문자·관광객 등 7일 오후 5시 기준 15명 확진 기자명 양기철 기자 입력 2021.07.07 17:56 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 8명 제주지역 확진자 접촉자, 4명 유증상자, 3명 타 지역 확진자 접촉자로 파악 도내 1,356개소 유흥시설 종사자 2주마다 선제 검사 실시…1차 11일까지 진행 제주도내 코로나19 검체채취 선별진료소(자료사진) [시사매거진/제주] 제주특별자치도는 7일 오후 5시 현재 15명(제주 #1305~1319번)의 코로나바이러스감염증-19(이하 코로나19) 확진자가 발생해 제주지역 누적 확진자 수는 총 1,319명으로 늘었다고 밝혔다. 이날 양성으로 확인된 15명 중 ▲8명(제주 #1305, 1307, 1308, 1313~1315, 1318, 1319번)은 제주지역 확진자의 접촉자이고, ▲3명(제주 #1309, 1316, 1317번)은 타 지역 확진자의 접촉자 ▲4명(제주 #1306, 1310, 1311, 1312번)은 코로나19 유증상이 나타나자 자발적으로 진단검사를 받고 확진된 것으로 조사됐다. 제주 1305번 확진자는 경기도 거주자로 지난 6일 확진된 1286번 확진자의 접촉자이다. 이들은 지난 4일 여행을 위해 입도한 것으로 조사됐다. 입도 다음 날인 5일부터 1286번이 몸살 등 코로나19 증상을 보이자 진단 검사를 실시해 먼저 확진 판정을 받았으며, 나머지 일행 2명도 접촉자로 분류돼 검사를 받았다. 이 과정에서 1305번 확진자가 발견됐으며, 나머지 일행 1명은 음성 판정을 받고 격리를 진행하고 있다. 1305번은 현재 몸살 증상을 보이는 것으로 파악됐다. 제주 1307·1308번 확진자는 제주지역 거주자로 지난 6일 확진된 1297번 확진자의 접촉자이다. 1307번과 1308번 확진자는 제주 1297번이 확진된 직후 진행한 검사에서 양성 판정을 받았으며, 모두 근육통 증상을 호소하고 있는 것으로 조사됐다. 제주 1309번 확진자는 서울 거주자로 지난 1일 여행을 하기 위해 제주에 왔다. 1309번은 입도 4일째인 지난 5일 서울 중구 보건소로부터 확진자와 접촉했던 사실을 전달 받고 코로나19 진단검사를 실시한 것으로 파악됐다. 제주 1313·1314번 확진자는 제주지역 거주자로 지난 6일 확진된 1298번의 가족과 지인이다. 1313번은 동거 가족이 1298번 확진자가 되자 접촉자로 분류돼 코로나19 검사를 받았다. 1314번은 1298번의 지인으로 역학조사에서 접촉자로 분류돼 검사를 진행한 결과 최종 양성으로 확인됐다. 제주 1315·1318·1319번 확진자는 제주지역 거주자로, 서귀포시 명동로 소재 ‘해바라기 가요주점’방문자이다. 이들은 동선 정보를 공개를 보고 코로나19 검사를 실시했다고 진술했다. 1318번과 1319번은 무증상 상태이지만, 1315번은 현재 발열 증상을 호소하고 있다. 제주 1316번 확진자는 강원도 춘천 거주자로 7일 확진된 춘천시 확진자의 가족이다. 1316번은 지난 2일 가족과 함께 여행을 하기 위해 입도했다. 지난 5일 춘천으로 먼저 돌아간 가족이 확진 판정을 받자 제주에서 검사를 받고 추가로 확진된 것으로 조사됐다. 제주 1317번 확진자는 서울 거주자로 지난 3일 여행을 하기 위해 입도했다. 1317번은 입도 후인 지난 6일 서울 영등포구 확진자의 접촉자로 통보받아 검사를 진행해 최종 확진됐다. 제주 1306·1310·1311·1312번 확진자의 경우는 코로나19 관련 유증상이 있어 코로나19 진단 검사를 실시한 것으로 파악됐으며, 이들의 감염 경로에 대해서는 현재 역학조사가 이뤄지고 있다. 제주도는 확진자들을 격리 입원 조치하고 진술을 확보하는 한편 신용카드 사용 내역 파악, 제주안심코드 등 출입자 명부 확인, 현장 폐쇄회로(CC)TV 분석 등을 통해 이동 동선과 접촉자를 파악하고 있다. 6일과 7일 각각 동선을 공개한 서귀포시 명동로 소재(서귀포시 명동로 13-3, 서귀동) 해바라기 가요주점(확진자 노출일시: 7월 1일(목) 오후 8시~ 2일(금) 오전 5시, 7월 2일(금) 오후 8시~ 3일(토) 오전 5시) 및 제주시 연동 소재(제주시 연동10길 3, 연동) 요술쟁이 헤어샵(확진자 노출일시: 7월 1일(목)~3일(토) 오후 7시~8시)과 관련한 검사도 병행되고 있다. 해바라기 가요주점과 관련해 앞서 접촉자로 분류된 이들을 제외하고, 6일부터 현재까지 방문 이력을 밝히며 진단검사를 받은 사람은 총 24명이다. 이중 3명은 추가로 양성 판정을 받았고, 10명은 음성으로 확인됐다. 나머지 11명에 대해서는 검사가 진행 중이다. 동선을 공개한 후 해바라기 가요주점과 관련해 7일 오후 5시 현재까지 총 12명의 확진자가 발생했다. 또 다른 확진자가 지난 1일부터 3일까지 오후 7시에서 오후 8시 사이 제주시 연동 소재 요술쟁이 헤어샵을 방문했던 것으로 파악된 만큼 관련 방문자들은 코로나19 증상 발현에 관계없이 가까운 보건소에 전화 상담 후 진단검사를 받으면 된다. 제주지역 보건소(보건소 검사 가능 시간: 09:30~17:30) 코로나19 진단검사가 아직 진행 중이지만 5시 기준 15명의 확진자가 더 추가되면서 일주일 새 제주지역은 54명의 확진자가 나온 것으로 집계됐다. 주 평균 일일 신규 확진자 수는 7.71명으로 대폭 증가했다. 정부의 사회적 거리두기 개편 지자체별 적용 방안에 따라 인구 70만 명인 제주는 한 주간 하루 평균 확진자가 7명 미만일 경우에는 1단계, 7명 이상일 경우에는 2단계가 적용된다. 임태봉 코로나방역대응추진단장은 “역학조사 등을 통해 철저히 상황을 관찰하고 있고 방역적 범주를 벗어날 경우에는 선택적 방역 대책을 추가로 발표하며 대비하고 있다”면서 “주간 발생동향을 비롯해 제주도의 의료 역량과 병상, 중증 환자 발생 수준 등 모든 양상을 종합적으로 고려해 도민들을 위한 대책을 고민하고 준비해나가겠다”고 밝혔다. 이와 함께 제주도는 도내 1,356개소(유흥주점 776, 단란주점 579·클럽 1) 유흥시설 종사자들을 대상으로 이달 1일부터 14일까지 유전자증폭(PCR) 검사를 선제적으로 시행하고 있다. 유흥시설은 업종 특성상 환기가 어려운 실내 공간에서 마스크를 착용하지 않고 이용자와 종사자간 거리두기를 준수하기 어려워 코로나19 중점관리시설로 분류되고 있다. 출입자 파악이 쉽지 않은데다 동선을 공개하더라도 신분 노출 등을 우려해 진단 검사를 꺼리면서 가족과 직장 등 일상생활에서 연쇄 감염으로 이어질 가능성도 있다. 이에 제주도는 보다 선제적인 조치가 필요하다는 판단 하에 지난 5월과 6월 불가피하게 영업시간을 제한하는 행정명령을 내린데 이어 유흥·단란주점 종사자에 대한 코로나19 진단검사를 시행한 바도 있다. 제주도내 유흥시설 관련 조치 현황 특히 최근에는 유흥업소발 확진자가 추가됨에 따라 오는 11일까지 도내 전 유흥시설 업주와 직원, 임시종사자 등에 대해서 1차 검사를 완료할 것을 재차 독려하고 있다. 7일에는 추가 공문을 통해 1차 검사 완료 후에도 2주에 한번 선제 검사를 실시할 것도 당부했다. 또한 제주도는 예방접종 유무와 상관없이 오는 8월까지 실내·외 모두 마스크 착용을 의무화했으며, 사적 모임 인원 제한도 비수도권 지역 중에서 유일하게 6명으로 제한한 상태다. 한편 7일 오후 5시 현재 제주에서 격리 중 확진자는 69명(강북구 확진자 1명 포함), 격리 해제자는 1,251명(사망 1명, 이관 3명 포함)이며, 도내 가용병상은 274병상이다. 양기철 기자 ygc9966@naver.com 새시대 새언론 시사매거진 양기철 기자 ygc9966@naver.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 상생소비복권 '당첨자발표일' 제외업종 공개 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 주요기사 정부조직 개편안 조만간 발표...여가부 폐지 중점 논의 [오늘날씨] 일본기상청 '첫눈·상현 반월' 서울날씨 '19도 기온뚝' 비소식, 2022년 단풍시기·명소 정진석 "국정동력 확보 위해 정부 조직개편 논의해야" 尹정부 첫 국정감사 4일 개막...여야 격돌 전망 여야, 감사원 '文 서면조사' 요구 놓고 공방 격화 [속보]러시아, 우크라이나 전쟁 중 핵 사용할까 '서방 경계심 강화' 최신뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 포토뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 인기뉴스 1 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 2 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? 3 '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 4 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 5 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 6 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 7 상생소비복권 '당첨자발표일' 제외업종 공개 8 애플 아이폰14·PRO 통신 3사 사전예약 혜택·가격·출시일·색상 화제 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 관광기념품 공모전, 당선작 17점 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광기념품 공모전, 당선작 17점 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광기념품 공모전, 당선작 17점 선정 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.07.10 13:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × '제주한잔 전통주 미니어처 5종 세트', '한라산1950' 금상 제주특별자치도와 제주특별자치도관광협회(회장 부동석)는 제24회 제주특별자치도 관광기념품 공모전 관련 심사 결과 당선작 17점을 선정했다고 10일 밝혔다. 금상 2점, 은상 3점, 동상 4점, 장려상 3점, 입선 5점이다. 지난 4월 21일부터 30일까지 진행된 공모에서는 총 155개 작품이 접수됐다. 이어 1차 전문가 심사, 2차 일반인 심사 및 관광.기념품 관련 업계.도외 전문가 등 10명으로 심사위원회를 구성해 본선 심사가 진행됐다. 상품성, 디자인, 창의성, 실용성 등을 종합적으로 평가한 결과 금상은 주식회사 파란공장(조남희)의 '제주한잔 전통주 미니어처 5종 세트'와 한라벗(이지현)의 '한라산1950'이 선정됐다. '제주한잔 전통주 미니어처 5종 세트'는 제주에서 생산되는 메밀 등을 원료로 사용하고 깨끗한 화산암반수를 이용해 술을 빚어 제주 전통주의 인지도 개선 및 타 지역의 전통주와 차별화가 가능하다는 점이 높이 평가 되었다. '한라산1950'은 한라산 모형의 초콜릿을 3D로 제작해 봄에는 제주 백년초, 여름에는 제주 말차, 가을에는 우도땅콩, 겨울에는 제주 감귤로 한라산의 4계절을 잘 표현해냈다는 평가를 받았다. 은상에는 '재주좋아', '제주감귤연필', '해녀를 품은 제주 즉석밥 3종 세트&amp; 벨라진 해초 누룽지' 등 3개 작품이, 동상에는 '돌테라', '제주 자수팔찌', '제주고기국수(그리운제주)', '소록차 세트' 등 4개 작품이, 장려상에는 3개 작품이, 입선에는 5개 작품이 각각 선정됐다. 제주도와 관광협회는 당선작품에 대해 이달 중 시상하는 한편, 앞으로 상품 개발촉진‧판로 지원 등 인센티브 시행 및 관광객 등을 대상으로 해당 기념품을 지속적으로 홍보해 나갈 계획이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 여행 온 관광객 잇따라 코로나19 확진...누적 1282명 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 여행 온 관광객 잇따라 코로나19 확진...누적 1282명 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도 여행 온 관광객 잇따라 코로나19 확진...누적 1282명 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.07.05 17:24 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 서울.경기도 관광객 2명 확진 제주도에 여행을 온 관광객들이 잇따라 코로나19 확진 판정을 받았다. 제주특별자치도는 5일 오후 5시 기준 2명의 확진자가 추가 발생하면서 누적 확진자는 1282명으로 집계됐다고 밝혔다. 1281번 확진자 ㄱ씨는 서울 거주자로 지난 2일 가족여행을 위해 제주를 방문했다. 그는 입도 후 몸살 등 코로나19 의심증세가 나타나자 진단검사를 받았고, 5일 확진 판정을 받아 격리됐다. 방역당국은 ㄱ씨와 함께 입도한 가족 2명에 대해서도 진단검사를 실시하는 한편, 시설격리 조치 했다. 1282번 확진자 ㄴ씨는 경기도 거주자로 지난달 21일 관광을 위해 제주도에 입도했다. 입도 직후 광주지역 코로나19 확진자의 접촉자로 통보돼 지난달 22일부터 시설격리를 이어왔으며, 격리해제 전 검사에서 최종 확진 판정을 받았다. 이에 따라 이날 오후 5시 기준 격리중인 확진자는 강북구 확진자 1명 포함 38명이며, 자가격리자는 확진자의 접촉자 206명 및 해외입국자 358명 총 564명이다. 한편 제주도는 최근 제주시내 한 의료기관에서 응급구조사가 접종을 했던 것으로 파악됨에 따라, 무면허 의료행위에 대해 자치경찰단에 수사를 의뢰했다. 제주보건소에서는 해당 의료기관의 위탁계약을 해지하고 관련자에 대한 고발조치를 했으며, 앞으로 의료기관 업무정지 등 행정 처분을 진행할 계획이다. 또 위탁 계약 해지에 따라 해당 병원에서 2차 접종을 진행할 예정이던 2117명은 제주시 접종센터로 이관해 접종을 진행할 예정이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주, 관광객 잇따라 코로나19 확진...긴급 역학조사 실시 제주, 입도객發 코로나19 확진자 잇따라...누적 '1280명' 제주, 7월 첫 주말 관광객 등 코로나19 확진자 8명 발생 제주, 관광객 등 코로나19 확진자 5명 발생...누적 1285명 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+    <t>제주도 관광 사업 공들이는 진에어, 제주관광공사와 협업 강화 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED : 2022-10-11 14:50 (화) 로그인 회원가입 전체메뉴 버튼 검색버튼 검색 검색 검색닫기 글로벌 미주 동남아 유럽 중국 기타 일본 인도 블록체인 암호화폐 블록체인 산업 재계·일반 자동차·항공 전기·전자·IT 유통·물류·패션 식품·제약·의학·바이오 조선·중공업·화학 4차산업 금융 은행 증권 카드 보험 제2금융 핀테크 사회·문화 사회 문화 건강 스포츠 연예 기타 오피니언 칼럼 기자수첩 이슈 인사·부고·동정 교육 &amp; 입시진로 부동산 건설 부동산 경제·정책 경제일반 정치 정책 전국 전국 인천 경기 영남 호남 충청 강원 본문영역 이전 기사보기 다음 기사보기 제주도 관광 사업 공들이는 진에어, 제주관광공사와 협업 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 자동차·항공 제주도 관광 사업 공들이는 진에어, 제주관광공사와 협업 강화 29일 제주관광 진흥 및 홍보 활성화 업무협약 체결 기자명 박종준 기자 입력 2021.07.29 13:38 수정 2021.07.29 13:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 URL복사(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 진에어는 29일, 최정호 진에어 대표, 고은숙 제주관광공사 사장 등 주요 관계자들이 참석한 가운데, 제주관광공사와 제주관광 진흥 및 홍보 활성화를 위한 업무 협약식을 가졌다.(사진=진에어) 진에어는 29일, 제주웰컴센터에서 최정호 진에어 대표, 고은숙 제주관광공사 사장 등 주요 관계자들이 참석한 가운데, 제주관광공사와 제주관광 진흥 및 홍보 활성화를 위한 업무 협약식을 가졌다고 밝혔다. 양사는 업무 협약을 계기로 제주 관광 활성화를 위한 공동 마케팅 진행, 제주도 여행객 대상 면세 쇼핑 편의성 증대를 위한 협력 관계 구축 등을 추진하기로 했다. 이와 더불어 진에어는 온라인 쇼핑몰 '지니 스토어'와 제주관광공사 인터넷 면세점과의 연계 프로모션 등 제주도 관광객들을 위한 다양한 마케팅 방안도 추진할 예정이다. 진에어는 "이번 협약은 양사간에 상호 공동 발전을 도모하는 첫 단추가 될 것으로 기대된다"라며, "앞으로 제주 여행객들에게 더욱 다양한 항공 여행 서비스를 제공하는데 적극적으로 협조해 나가겠다"고 밝혔다. 키워드 #진에어 #제주도 박종준 기자 jjp@getnews.co.kr 다른기사 보기 현재 분류의 주요기사 현대모비스, ‘차세대 IVI 플랫폼’으로 미래차 시장 '정조준' 현대차그룹, '부산 엑스포' 유치 활동 총력… 글로벌 SNS 콘텐츠 4000만뷰 돌파 삼바 4공장, 이르면 11일 가동… 이재용 시찰 여부 관심 신세계면세점, ‘스마트물류센터’ 인증 획득… "생산성 30% 증가" 샤오미, 하이엔드 스마트 밴드 ‘샤오미 스마트 밴드 7 프로’ 韓 상륙 삼성전자 타이젠 OS, 호주 첫 선…글로벌 TV 플랫폼으로 확대 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 삭제기준 댓글 내용입력 0 / 400 욕설, 타인비방, 비속어, 홍보성 전화번호 등은 예고 없이 삭제 될 수 있습니다. 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 기자수첩 [기자수첩] 신뢰 흔들리는 여행사, 소비자에 '주말환불 불가능' 확실히 공지해야 [기자수첩] 코로나 대출 재연장, ‘깜깜이 부실’ 언제까지 [기자수첩] 끔찍한 美 'IRA·반도체·바이오 행정명령' 알고 이기자 [기자수첩] '정쟁'에 휩싸인 尹의 '비속어'... 국격 도움되나 [기자수첩]유디치과, 매출 급감에 영업익 '적자전환' 원인과 해결 방안 [기자수첩] 경영정상화 시동 쌍용차, 힘찬 날갯짓을 기대한다 많이 본 뉴스 01 유럽 푸틴, 크림대교 폭발사건 이틀만에 '피의 보복전'...우크라 주요 도시에 미사일 공격 02 기자수첩 [기자수첩] 신뢰 흔들리는 여행사, 소비자에 '주말환불 불가능' 확실히 공지해야 03 경제일반 대한상의, 소매유통 체감경기지수 ‘73’ ... “소비냉각 우려” 04 정치 北, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼 05 자동차·항공 현대차그룹, '부산 엑스포' 유치 활동 총력… 글로벌 SNS 콘텐츠 4000만뷰 돌파 06 건설 한화건설, 총 14조원 규모 이라크 비스마야 신도시 사업 철수 07 부동산 서울시, 청년 5천명에 중개수수료·이사비 최대 40만원 지원 실시간뉴스 광주은행-광주시, 하반기 소상공인 특례보증 업무협약 체결 전남도, e-모빌리티 엑스포 13일 영광서 개막 대만 TSMC 주가, 7% 넘게 폭락...美정부 대중 수출 규제 영향 그라비티, 트릴로지 3탄 '라그나로크 X' 국내 CBT 시작 [2022국감] 금감원장 “금융권 횡령·이상 외환거래, 신속·강력 대응” 김영록 전남지사, 한화에어로스페이스 누리호 반복발사 우선협상대상 선정에 축하 광주시 광산구, 송정역세권 상권르네상스 시대 기념행사 14일 개최 Back to top 07237) 서울특별시 영등포구 국회대로68길 23 정원빌딩 1001호 대표전화 : 02-6925-0218 팩스 : 02-782-2017 제호 : 글로벌경제신문 법인명 : 글로벌경제신문 등록번호 : 서울 아 03303(2014-08-26) 대표이사·발행인 : 최종천 편집인 : 류원근 청소년보호책임자 : 박중호 Email : news@getnews.co.kr 산업 글로벌 블록체인·암호화폐 금융 사회·문화 오피니언 핫이슈 부동산 경제·정책 전국 보도자료 매체소개 기사제보 보도윤리강령 광고문의 개인정보처리방침 청소년보호정책 인터넷신문윤리강령 저작권규약 이용약관 이메일무단수집거부 기타매체정보 © 글로벌경제신문. All rights reserved. 위로 전체메뉴 전체기사 산업 전체 재계·일반 자동차·항공 전기·전자·IT·게임 유통·물류·패션 식품·제약·의학·바이오 조선·중공업·화학 4차산업 글로벌 전체 미주 동남아 유럽 중국 기타 일본 인도 중앙아시아 블록체인·암호화폐 전체 암호화폐 블록체인 금융 전체 은행 증권 카드 보험 제2금융 핀테크 사회·문화 전체 사회 문화 건강 스포츠 연예 기타 오피니언 전체 칼럼 기자수첩 이슈 인사·부고·동정 WITH 교육&amp;입시 진로 부동산 전체 건설 부동산 경제·정책 전체 경제일반 정치 정책 전국 전체 전국 인천 경기 영남 호남 충청 강원 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“일감 줄어도 지입료는 그대로” 제주도 관광버스 기사들의 눈물 &lt; 비정규노동 &lt; 노동 &lt; 기사본문 - 매일노동뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-11 07:31 (화) 로그인 회원가입 모바일웹 rss Mobile 노동 사건ㆍ사고 노동정책 노동조합 노사관계 비정규노동 노동법 국제노동 English 정치ㆍ경제 정당 국회 정부 사회적대화 산업동향 노동시장 경제일반 경영계 사회 시민사회 민중ㆍ통일 환경 여성ㆍ소수자 복지 교육 사람&amp;문화 인터뷰 인물 책세상 영화ㆍ공연 미디어 생활문화 연재만화 인사·부고 안전과 건강 노동안전 안전포커스 전문가 칼럼 기획연재 현장 기획특집 연재 오피니언 연재칼럼 기고 어떻게 생각하십니까 취재수첩 사진이야기 이러쿵저러쿵 시론 정정·반론보도 노동사건 따라잡기 판례리뷰 노동판례 상담사례 노동위원회 일정 출판 가치, 모아 전체메뉴 버튼 검색하기 기사검색 검색 상세검색 본문영역 이전 기사보기 다음 기사보기 “일감 줄어도 지입료는 그대로” 제주도 관광버스 기사들의 눈물 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 비정규노동 “일감 줄어도 지입료는 그대로” 제주도 관광버스 기사들의 눈물 전국 평균 웃도는 지입운행률 … “코로나19 장기화로 고통 커져, 개인사업 보장해야” 기자명 신훈 기자 입력 2021.07.28 07:30 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 공공운수노조 제주지역본부 제주도 관광버스 기사들이 지입제도를 개선하라고 촉구했다. 지입제도는 개인 차주가 지입료를 내고 운수회사 명의로 차량을 운행하는 방식을 말한다. 공공운수노조 제주지역본부는 27일 오전 제주도청 앞에서 ‘제주 지역 전세버스 지입 실태조사 및 노동환경 개선 캠페인 기자회견’을 열고 “지입차량의 법적 소유권은 운수회사에 있다”며 “차량이 운수회사에 볼모로 잡혀 있다 보니 지입 노동자들은 아무리 억울한 일이 있어도 권리를 주장하는 게 쉽지 않다”고 밝혔다. 국토교통부가 지난 3월 공개한 ‘전세버스 운송업계 차량운행 실태조사’ 보고서를 보면 제주도의 지입운행률은 82.7%로 전국 평균 64.4%를 크게 웃돈다. 제주본부는 “제주특별자치도 여객자동차운수사업 조례에 따라 20대 이상 전세버스를 등록해야 여객운송사업자 면허를 받을 수 있다”며 “버스 20대를 운행하는 운수회사에서 직영버스는 서너 대에 불과하고 나머지는 전부 지입버스”라고 설명했다. 제주본부는 “코로나19가 장기화하면서 제주도 관광산업 종사자의 고통이 심각하다”며 “지입버스 노동자의 삶은 파탄났다”고 호소했다. 지입버스 기사들은 일감이 없어도 한 달에 50만원가량의 지입료를 비롯해 차량할부금·보험료·유지관리비 등 각종 비용을 부담해야 한다. 제주본부는 “지입 관행의 부작용을 해소하기 위해서는 제도 개선이 시급하다”며 “개인사업 형태의 전세버스 운행을 보장해야 한다”고 강조했다. 제주본부는 전세버스전략조직사업단을 꾸리고 제주지역 전세버스 기사 2천여명을 대상으로 실태조사에 착수했다. 제주국제공항 주차장을 비롯해 주요 관광지를 순회하며 전세버스 노동자를 만나겠다는 구상이다. 신훈 기자 ahab@labortoday.co.kr 저작권자 © 매일노동뉴스 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 오늘의 주요뉴스 [96.5% 패소하는데] 산재 기업들의 ‘뻔뻔한’ 불복소송 5년간 114건 [윤희숙 진보당 상임대표] “거꾸로 가는 윤석열 정부에 광장정치로 맞서겠다” 경기도시각장애인복지관, 수습 시각장애인 부당해고 논란 ‘적자’ 서울교통공사 ‘알짜’ 부동산 다시 내놓았다 많이 본 기사 1 ‘적자’ 서울교통공사 ‘알짜’ 부동산 다시 내놓았다 2 [96.5% 패소하는데] 산재 기업들의 ‘뻔뻔한’ 불복소송 5년간 114건 3 [윤희숙 진보당 상임대표] “거꾸로 가는 윤석열 정부에 광장정치로 맞서겠다” 4 경기도시각장애인복지관, 수습 시각장애인 부당해고 논란 5 부산노동청 한시임기제 합격자 전원 ‘내부응시자’ Back to top 신문사 소개 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 마포구 동교로16길 15 , 3층(서교동, 동호빌딩) 대표전화 : 02-364-6900 팩스 : 02-364-6901 청소년보호책임자 : 한계희 법인명 : (주)매일노동뉴스 제호 : 매일노동뉴스 등록번호 : 서울 아 00094 등록일 : 2005-10-26 발행일 : 2017-06-01 발행인 : 부성현 편집인 : 한계희 Copyright © 2022 매일노동뉴스. All rights reserved. mail to webmaster@labortoday.co.kr 위로 전체메뉴 전체기사 노동 전체 사건ㆍ사고 노동정책 노동조합 노사관계 비정규노동 노동법 국제노동 English 정치ㆍ경제 전체 정당 국회 정부 사회적대화 산업동향 노동시장 경제일반 경영계 사회 전체 시민사회 민중ㆍ통일 환경 여성ㆍ소수자 복지 교육 사람&amp;문화 전체 인터뷰 인물 책세상 영화ㆍ공연 미디어 생활문화 연재만화 인사·부고 안전과 건강 전체 노동안전 안전포커스 전문가 칼럼 기획연재 전체 현장 기획특집 연재 오피니언 전체 연재칼럼 기고 어떻게 생각하십니까 취재수첩 사진이야기 이러쿵저러쿵 시론 정정·반론보도 노동사건 따라잡기 전체 판례리뷰 노동판례 상담사례 노동위원회 일정 출판 가치, 모아 전체 구로노동자조사그룹 노동포럼 나무 희망씨 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>이르면 내달 21일 제주도 가는 '무착륙 관광비행' 뜬다 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 이르면 내달 21일 제주도 가는 '무착륙 관광비행' 뜬다 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 이르면 내달 21일 제주도 가는 '무착륙 관광비행' 뜬다 송고시간2021-07-18 07:01 日本語 요약 beta 닫기 이르면 다음 달 21일부터 인천이나 김포공항에서 무착륙 국제관광항공편을 타고 김해나 제주 등 다른 지방공항으로 이동할 수 있게 된다. 국토교통부 관계자는 18일 "출발공항과 도착공항이 다른 형태의 무착륙 관광비행을 다음 달 말부터 운행할 예정"이라며 "항공사들을 상대로 수요조사를 거쳐 8월 21일이나 28일부터 운항을 시작하게 될 것"이라고 말했다. 출발공항과 도착공항이 다른 무착륙 관광비행이 운행되면 특히 제주도나 부산(김해공항)으로 여행을 떠나는 관광객 수요가 많을 것으로 국토부는 전망했다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김기훈 기자 기자 페이지 출발·도착 공항 다른 새로운 형태 관광비행…면세쇼핑도 허용항공사 수요조사 거친 뒤 여름 성수기 피해 8월 하순 운항 예정 면세쇼핑 하고 무착륙 관광여행 (영종도=연합뉴스) 신준희 기자 = 12일 영종도 인천국제공항에서 제주항공 무착륙 관광비행을 떠나는 이용객들이 구입한 면세품을 들고 탑승구로 들어가고 있다. 2020.12.12 hama@yna.co.kr (서울=연합뉴스) 김기훈 기자 = 이르면 다음 달 21일부터 인천이나 김포공항에서 무착륙 국제관광항공편을 타고 김해나 제주 등 다른 지방공항으로 이동할 수 있게 된다. 무착륙 국제관광비행을 이용할 경우 일반 해외 여행객과 동일한 면세 혜택이 주어지는 데다 도착지에서 국내 관광을 즐길 수도 있어 '두 마리 토끼'를 잡는 셈이다. 국토교통부 관계자는 18일 "출발공항과 도착공항이 다른 형태의 무착륙 관광비행을 다음 달 말부터 운행할 예정"이라며 "항공사들을 상대로 수요조사를 거쳐 8월 21일이나 28일부터 운항을 시작하게 될 것"이라고 말했다. 광고 무착륙 관광비행은 출국 후 다른 나라 영공까지 선회비행을 하고 착륙과 입국 없이 출국 공항으로 재입국하는 형태의 비행을 말한다. 그동안 무착륙 관광비행은 인천공항을 출발한 경우 인천공항으로 되돌아오는 형태로 운영됐는데, 출발 공항이 아닌 다른 공항으로 돌아오는 형태로 새로운 관광비행을 선보이는 것이다. 출발공항과 도착공항이 다른 무착륙 관광비행이 운행되면 특히 제주도나 부산(김해공항)으로 여행을 떠나는 관광객 수요가 많을 것으로 국토부는 전망했다. 또 지금까지 무착륙 관광비행은 모두 일본 쪽 영공을 시계방향으로 선회 비행하는 형태로 운행됐으나 앞으로 반시계 방향인 중국 쪽 영공을 지나는 노선도 검토 중이다. 무착륙 국제 관광 비행하며 면세쇼핑 (서울=연합뉴스) 제주항공이 12일 일본 상공을 비행하고 돌아오는 무착륙 국제 관광비행을 실시했다. 이날 한 탑승객이 기내에서 면세품을 사고 있다. 2020.12.12 [제주항공 제공. 재판매 및 DB금지] photo@yna.co.kr 다만 여름철 휴가 성수기가 끝나는 다음 달 하순께 출발·도착 공항이 다른 무착륙 관광비행이 가능할 전망이다. 국제선 하늘길이 막힌 상황에서 국내선 여객 수요는 이미 신종 코로나바이러스 감염증(코로나19) 발생 전 수준을 회복했고, 특히 여름 휴가철을 맞아 제주도로 관광객이 몰리면서 과밀 상태가 우려되기 때문이다. 또 항공사별 수요 조사와 상품 준비, 여행객 모집 과정을 고려하면 8월 셋째 주 토요일인 21일이나 그다음 토요일인 28일에 첫 제주행 무착륙 관광비행 항공편이 뜰 것으로 국토부는 전망했다. 무착륙 관광비행을 이용하게 되면 입국 후 코로나19 검사와 격리가 면제되고, 탑승객은 면세 쇼핑을 즐길 수 있다. 또 국제관광비행을 마친 뒤 도착지에서 국내 관광도 즐길 수 있어 항공 수요 회복과 면세·관광산업 활성화에 도움이 될 것으로 기대된다. 코로나19 사태로 사실상 국제선 하늘길이 끊긴 상황에서 무착륙 관광비행은 관련 업계의 매출 증대와 고용유지의 버팀목이 되고 있다. 국토부에 따르면 지난해 12월 12일 인천공항에서 무착륙 관광비행 항공편이 첫 운항을 시작한 이후 올해 6월까지 7개 국적 항공사가 관광비행 항공편을 총 176회 운항했다. 탑승객은 1만8천494명, 평균 탑승률은 74.3%로 집계됐다. 한편 국내 코로나19 확진자 급증세에도 항공사들의 사이판 노선 운항은 예정대로 이달 말부터 재개될 전망이다. 또 지난달 29일 한국과 사이판이 맺은 트래블 버블(Travel Bubble·여행안전권역) 합의문에는 방역상황이 악화할 경우 트래블 버블을 일시 중단할 수 있는 '서킷 브레이커' 조항이 담겼지만, 정부는 일단 예정대로 트래블 버블을 추진한다는 방침이다. 국토부 관계자는 "사이판 정부로부터 트래블 버블 시기를 미뤄달라는 요청은 없었다"라며 "현재로서는 트래블 버블 중단을 고려하지 않고 있다"고 설명했다. kihun@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/07/18 07:01 송고 #관광비행 #무착륙 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>송재호 의원 "제주도, 관광방역 인력 채용 전국 최하위" :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 송재호 의원 "제주도, 관광방역 인력 채용 전국 최하위" 등록 2021.07.22 11:17:12 작게 크게 "계획 38명 중 7명 채용…계획대비 18%" 송재호 의원. *재판매 및 DB 금지 [제주=뉴시스] 강정만 기자 = 더불어민주당 송재호 의원(제주시갑·정무위)은 제주도가 관광지를 대상으로 한 방역 인력 채용 사업에 38명을 채용하겠다고 신청한 뒤 7명만 채용한 것으로 드러났다고 22일 밝혔다. 송 의원실은 이날 문화체육관광부의 자료를 인용, "제주도에서는 관광지를 대상으로 한 방역인력 총 38명을 채용하겠다고 신청했고, 교부금 2억1100만원을 수령했다"며 "그러나 7월 현재까지 제주도청은 단 7명만을 채용했다"고 설명했다. 송 의원실은 "지역별 채용 현황에 따르면, 서울·인천·울산·세종·강원·경북·경남 등 대부분 지자체는 전원 채용을 완료했으며, 부산·대구·광주·경기 등 지자체도 계획 대비 80%, 전남은 50%를 채용했다"며 "제주는 계획 대비 18%만을 채용해 전국 지자체 중 최하위를 기록했다"고 전했다. 송 의원은 “코로나19 장기화로 급증한 국내 관광객으로 전염병 유행시 방역에 취약할 수밖에 없는 현실이다"며 "사각지대를 중심으로 방역인력 배치에 적극적으로 나서야 한다”고 지적했다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 지어소프트, 8회차 CB 전환가액 하향 조정 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 금호석유화학 주가, '나홀로 질주' 비결은 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 지어소프트, 8회차 CB 전환가액 하향 조정 금감원, 금융사 직원에 '프리패스 출입증' 발급 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S1N1 이전 다음 제주도관광협회, 영세 관광사업체 방역‧안전 강화 지원 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 제주도관광협회, 영세 관광사업체 방역‧안전 강화 지원 홍석준 기자 승인 2021.07.28 15:34 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [미디어제주 홍석준 기자] 제주도관광협회가 위드코로나 시대 도내 영세한 관광사업체를 대상으로 경쟁력 강화 지원사업 참여 업체를 모집하고 있다. 지난 1~2차 사업 때 봄철 관광객들이 방역수칙을 준수하면서 안전한 여행이 될 수 있도록 소화기, 구급함, 심장제세동기 등 안전 장비와 발열체크기 등 장비를 지원한 데 이어 이번이 세 번째다. 이번 사업에서는 관광객 서비스와 안전에 초점을 맞춰 업체에서 필요로 하는 차량용 소화기와 구명복 등 안전장비와 전세버스용 발열체크기 등 서비스 장비를 추가로 지원할 예정이다. 자세한 사항은 도관광협회 홈페이지(www.visitjeju.or.kr)에서 확인할 수 있다. 도관광협회 관계자는 “신청 물품의 구매비용을 70%까지 보조, 업계에 실질적인 지원이 이뤄질 것으로 보고 있다”며 “앞으로도 코로나19로 힘든 도내 관광사업체 지원을 위해 최선을 다하겠다”고 밝혔다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>관광객 울리는 '고무줄' 렌터카 요금 잡힐까…제주도, 집중점검 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 관광객 울리는 '고무줄' 렌터카 요금 잡힐까…제주도, 집중점검 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 관광객 울리는 '고무줄' 렌터카 요금 잡힐까…제주도, 집중점검 송고시간2021-07-19 14:25 요약 beta 닫기 같은 차종도 가격이 서로 다르고 시시각각 가격이 큰 폭으로 변동되는 '고무줄' 렌터카 이용요금에 대한 제주도 차원의 자정 노력이 진행된다. 제주도는 렌터카 업체별로 렌터카 이용요금이 큰 폭의 차이가 남에 따라 다음 달 27일까지 대여 요금 안정화를 위해 자정 노력을 촉구하고 실태 점검을 벌인다고 19일 밝혔다. 신종 코로나바이러스 감염증(코로나19)으로 인해 해외여행이 어렵게 되고 거리두기 방역으로 통제된 분위기를 해소하려는 개별 관광객들의 여행 수요가 제주로 쏠리고 있다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 요금 변동성 자정 노력 촉구·타 시도 등록차 영업 단속 (제주=연합뉴스) 고성식 기자 = 같은 차종도 가격이 서로 다르고 시시각각 가격이 큰 폭으로 변동되는 '고무줄' 렌터카 이용요금에 대한 제주도 차원의 자정 노력이 진행된다. 렌터카 북적이는 제주 해변 [연합뉴스 자료 사진] 제주도는 렌터카 업체별로 렌터카 이용요금이 큰 폭의 차이가 남에 따라 다음 달 27일까지 대여 요금 안정화를 위해 자정 노력을 촉구하고 실태 점검을 벌인다고 19일 밝혔다. 제주도는 렌터카 수요에 따라 업체가 자율적으로 렌터카 이용요금 할인율을 최소 20％나 최고 90％로 둬 가격이 제각각으로 책정되고 있다. 광고 같은 차종도 2배 이상 대여 요금이 차이가 나거나 극성수기인 이달 말께에는 하루치 대여 요금이 20만 원이 넘는 경우도 있다. 도는 도내 113개 렌터카 업체를 대상으로 대여약관 신고요금 이상 대여행위, 건전한 자동차 대여사업 운영을 위한 등록기준 적합 여부, 등록조건 이행 여부 등 관계 법령 준수 여부, 전반적 운영상황 및 차량 정비·점검 등을 중점 점검할 방침이다. 도는 특히 다른 시·도 등록 렌터카를 이용해 도내에서 영업하는 '렌터카 총량제' 위반 차량에 대해 적발 시 100만 원의 과징금 또는 운행정지(차량 대수 2배, 30일), 형사고발 등의 행정 조치할 계획이다. 또 제주형 사회적 거리두기 3단계 격상에 따라 5인 이상 집합 금지 이행 여부도 집중적으로 점검한다. 점검 결과, 대여약관 신고요금 이상으로 대여행위를 하는 업체는 60만 원의 과징금 또는 운행정지(차량 대수 2배, 30일) 처분을 내릴 방침이다. 김재철 교통항공국장은 "렌터카 바가지요금 인식 해소 및 건전한 렌터카 운영을 통해 이용객 불편 최소화에 온 힘을 쏟겠다"고 말했다. 신종 코로나바이러스 감염증(코로나19)으로 인해 해외여행이 어렵게 되고 거리두기 방역으로 통제된 분위기를 해소하려는 개별 관광객들의 여행 수요가 제주로 쏠리고 있다. 제주도관광협회에 따르면 이달 들어 18일까지 제주에 63만6천212명의 관광객이 방문해 지난해 같은 달 57만7천183명에 견줘 10.2％ 늘었다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/07/19 14:25 송고 #렌터카 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>관광객 6명 제주도 여행 후 코로나19 확진···道, 방역 조치 위반 여부 조사 - 뉴스웨이 기업·경영 금융·증권 정치·경제 부동산 오피니언 ESG경영 기획·이슈 리포트 스토리 검색어 X 검색 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 bar_progress 관광객 6명 제주도 여행 후 코로나19 확진···道, 방역 조치 위반 여부 조사 검색 닫기 X 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 이슈플러스 관광객 6명 제주도 여행 후 코로나19 확진···道, 방역 조치 위반 여부 조사 안민 기자 등록 2021.07.28 17:40 자료사진. 사진=연합뉴스 제공 6명의 관광객이 함께 제주도에 갔다가 코로나19 확진 판정을 받았다. 제주도는 현재 거리두기 3단계 조치를 시행하고 있어 5인 이상 사적 모임이 금지 돼 있다. 제주도는 이들 6명에 대해 방역 조치 위반 여부를 조사하고 있다. 연합뉴스에 따르면 제주도는 28일 입도객 중 부산지역 거주자로 알려진 6명(1678∼1683번)이 코로나19에 확진 됐다고 밝혔다. 역학조사 결과 이들은 지난 17일 함께 제주도로 들어와 여행을 한 것으로 확인됐다. 제주도는 이들에 대해 5인 이상 집합 금지 등 방역수칙 위반이 확인될 경우 행정조치한다고 밝혔다. 도는 확진자를 격리 입원 조치하는 한편 확진자 진술, 신용카드 사용 내역, 제주안심코드 등 출입자 명부 확인, 현장 폐쇄회로(CC)TV 분석 등을 통해 이동 동선과 접촉자를 파악하고 있다. 한편 제주도는 이날 0시부터 오후 5시까지 코로나19 확진자 19명(제주 1665∼1683번)이 추가로 발생해 누적 확진자가 1683명이라고 밝혔다. 신규 확진자의 감염경로를 보면 16명은 제주지역 확진자의 접촉자이고, 나머지 3명은 코로나19 증상이 나타나 자발적으로 검사를 받아 확진된 사례다. 제주지역 확진자의 접촉자인 16명 중 8명은 입도객이며, 8명은 제주지역 거주자다. 이날 오후 5시 현재 제주에서 격리 중인 확진자는 194명, 부산시 이관 1명, 대전시 이관 1명, 격리 해제자는 1천487명(사망 1명, 이관 21명 포함)이며, 도내 가용병상은 149병상이다. 안민 기자 peteram@ &lt;저작권자 © 온라인 경제미디어 뉴스웨이 · 무단 전재 및 재배포 금지&gt; 주요뉴스 퇴출 심판대 서는 신라젠···"개선과제 모두 완료했다" 김은지 대표 "전자담배 '글로' 2배 성장"···BAT로스만스, ESG·위해저감 강조 강달러 독주에···日로 발길 돌린 해외직구족 삼성·LGD, 3분기 애플로 희비 갈렸다 BAT로스만스 "'글로' 완전 전환 시 연초 대비 위해저감 효과" 지배구조 더보기 동원산업·동원엔터프라이즈, 오늘 주총서 합병안 가결 ESG경영 더보기 추락하는 허연수號···GS리테일, '동반성장 최우수' 타이틀도 잃었다 실종아동찾기 뉴스웨이가 함께합니다. 이경미(여, 당시 만4세) 실종일자 : 1977/04/01 실종지역 : 부산광역시 연제구 카드뉴스+ 더보기 '과다 흡연, 연골 파괴, 여장까지···' 군대 안 가려고 이런 짓을? 뉴스웨이TV 더보기 'BBC 尹 풍자 영상' 튼 김경협 "한국 칭찬으로 보이나?" 박진 "영국 공식 입장은 달라" 회사소개 개인정보처리방침 이메일무단수집거부 청소년보호정책 윤리강령 고충처리 인재채용 전체 서비스보기 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 (주)뉴스웨이 서울특별시 용산구 한강대로 308, 7층 (갈월동, 한국정보통신공사협회) 등록번호 : 서울, 아00528 등록일자 : 2008.03.10 발행일자 : 2008.03.10 제호 : 뉴스웨이 회장 : 김종현 발행인 · 편집인 : 강 혁 편집국장 : 황의신 청소년보호책임자 : 안 민 Tel : 02. 799. 9700 Fax : 02. 799. 9724 mail to webmaster@newsway.co.kr 뉴스웨이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다.Copyright © Newsway. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광 성수기 맞아 방역 위반 행위 단속 강화 - 뉴스웨이 기업·경영 금융·증권 정치·경제 부동산 오피니언 ESG경영 기획·이슈 리포트 스토리 검색어 X 검색 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 bar_progress 제주도, 관광 성수기 맞아 방역 위반 행위 단속 강화 검색 닫기 X 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 이슈플러스 제주도, 관광 성수기 맞아 방역 위반 행위 단속 강화 서승범 기자 등록 2021.07.22 13:38 사진=연합뉴스 제공 제주도가 여름 관광 성수기를 맞아 유흥시설, 일반음식점 등에 대한 방역 지침 위반 행위를 집중적으로 단속한다. 제주도는 제주시·서귀포시·제주경찰청·자치경찰단과 합동점검반을 편성해 유흥시설 및 민원 발생이 잦은 유흥접객원 고용 의심 일반 음식점 등을 대상으로 일정 기간 야간 단속을 시행한다고 22일 밝혔다. 중점 단속 대상은 집합 금지 행정명령 위반 업소, 행정조치 이력이 있는 업소, 운영 시간 제한 위반 등 방역 수칙 위반 업소 등이다. 또 일반음식점에서 유흥접객원을 고용한 것이 적발될 시에는 감염병예방법과 식품위생법 위반을 적용하기로 했다. 도는 위반 업소에 대해서는 과태료 부과, 영업 중단 등 행정처분뿐만 아니라 수사기관에 고발하는 등의 강력히 대처할 방침이다. 집합 금지시설(유흥시설)에서 행정명령을 어기고 영업하다 적발되면 영업주는 300만원 이하의 벌금에 처한다. 일반음식점에서 유흥접객원을 고용해 운영하는 경우 식품위생법상 10년 이하의 징역 또는 1억원 이하의 벌금에 처하며 영업자 준수사항 위반 시 1∼2개월의 영업정지 등의 처분을 받게 된다. 또 위반 업소에서 확진자가 발생할 경우 검사, 조사, 임원, 치료비 등 방역 비용에 대해 구상권을 행사할 예정이다. 제주도는 지난 19일부터 사회적 거리두기 3단계 격상에 따라 식당·카페 매장 내 영업시간이 오후 10시로 제한됐다. 유흥시절 5종에 대해서는 집합금지 행정처분을 내렸다. 서승범 기자 seo6100@ 관련태그 #제주도 &lt;저작권자 © 온라인 경제미디어 뉴스웨이 · 무단 전재 및 재배포 금지&gt; 주요뉴스 퇴출 심판대 서는 신라젠···"개선과제 모두 완료했다" 김은지 대표 "전자담배 '글로' 2배 성장"···BAT로스만스, ESG·위해저감 강조 강달러 독주에···日로 발길 돌린 해외직구족 삼성·LGD, 3분기 애플로 희비 갈렸다 BAT로스만스 "'글로' 완전 전환 시 연초 대비 위해저감 효과" 지배구조 더보기 동원산업·동원엔터프라이즈, 오늘 주총서 합병안 가결 ESG경영 더보기 추락하는 허연수號···GS리테일, '동반성장 최우수' 타이틀도 잃었다 실종아동찾기 뉴스웨이가 함께합니다. 이경미(여, 당시 만4세) 실종일자 : 1977/04/01 실종지역 : 부산광역시 연제구 카드뉴스+ 더보기 '과다 흡연, 연골 파괴, 여장까지···' 군대 안 가려고 이런 짓을? 뉴스웨이TV 더보기 'BBC 尹 풍자 영상' 튼 김경협 "한국 칭찬으로 보이나?" 박진 "영국 공식 입장은 달라" 회사소개 개인정보처리방침 이메일무단수집거부 청소년보호정책 윤리강령 고충처리 인재채용 전체 서비스보기 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 (주)뉴스웨이 서울특별시 용산구 한강대로 308, 7층 (갈월동, 한국정보통신공사협회) 등록번호 : 서울, 아00528 등록일자 : 2008.03.10 발행일자 : 2008.03.10 제호 : 뉴스웨이 회장 : 김종현 발행인 · 편집인 : 강 혁 편집국장 : 황의신 청소년보호책임자 : 안 민 Tel : 02. 799. 9700 Fax : 02. 799. 9724 mail to webmaster@newsway.co.kr 뉴스웨이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다.Copyright © Newsway. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 아랍권과 협력…의료·관광분야 질적 성장 모색 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 아랍권과 협력…의료·관광분야 질적 성장 모색 파이낸셜뉴스입력 2021.07.19 11:31수정 2021.07.19 11:35 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 한국·아랍소사이어티 통해 교류방안 실무협의 진행 2008년부터 한국·아랍소사이어티에서 연례적으로 시행해 온 ‘아랍문화제’ [KAS 제공] [제주=좌승훈 기자] 제주도는 우리 정부·기업·단체와 국내 아랍 국가별 대표부가 회원인 (재)한국·아랍소사이어티(Korea-Arab Society, KAS)와 교류 방안을 놓고 실무협의를 진행하고 있다고 19일 밝혔다. 앞서 원희룡 제주지사는 지난 6월25일 제16회 제주포럼에 참석한 아랍권 주한 대사들과 간담회를 갖고 “중동지역의 항구적 평화와 번영을 기원한다”는 메시지를 전달한 바 있다. 이번 KAS와 제주도 간 교류 협의도 이에 따른 것이다. 한국-아랍소사이어티는 민관합동 비영리 공익재단이다. 한-아랍 간 경제분야의 협력은 물론, 정치·경제·문화·학술·언론 등 전방위에 걸친 교류를 통해 두 지역을 잇는 가교 역할을 담당하기 위해 한국과 아랍 22개국의 정부기관과 두 지역 기업·단체가 참여한 가운데 2008년 7월28일에 설립됐다. 이에 따라 현재 매년 아랍문화제를 비롯해 한·아랍 우호친선 카라반, 한·중동 협력포럼, 한·아랍 청년교류 프로그램 등도 열리고 있다. 제주도는 실무협의를 통해 KAS가 추진하고 있는 한·아랍 스타트업 아이디어 공모를 포함해 각종 한·아랍 우호증진 사업에 제주지역의 참여를 적극 요청하기로 했다. 또 올 하반기 중 주한 아랍국가의 대사를 비롯해 국내 거주 아랍권 주요 인사를 초청해 제주 청정자연 환경과 연계된 의료·관광분야의 교류와 질적 성장을 위한 실행방안을 논의하기로 했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 관광방역 인력 채용률 18%…전국 최하위 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 제주도 관광방역 인력 채용률 18%…전국 최하위 입력 2021.07.23 (08:38) 수정 2021.07.23 (08:45) 뉴스광장(제주) 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 제주도 관광방역 인력 채용률 18%…전국 최하위 입력 2021-07-23 08:38:29 수정2021-07-23 08:45:38 뉴스광장(제주) 뉴스광장(제주) 전체보기 기자 정보 댓글 좋아요 공유하기 제주-주요뉴스 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>“관광지니까 유흥업소 먼저?” 제주도 1순위 접종 대상 논란-국민일보 시사 시사 &gt; 전체기사 “관광지니까 유흥업소 먼저?” 제주도 1순위 접종 대상 논란 이달 제주 확진자 3명 중 1명 유흥주점 관련자 일각에선 “필수 인력이냐” 이의·민원 빗발 입력 : 2021-07-14 15:39/수정 : 2021-07-14 15:44 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도청 '자치도에 바란다' 게시판에 올라온 항의성 글들. 화면 캡쳐. 정부가 이달 말부터 전국 단위 일괄 접종과 지자체 자율 접종을 병행하기로 한 가운데 제주도가 1순위 접종 대상자에 유흥업 종사자를 포함해 논란이 일고 있다.유흥업소의 경우 우선 접종보다 더 엄격한 방역 수칙을 적용하는 게 먼저 아니냐는 지적이 제기되는 가운데 제주도는 가장 취약한 감염 대상자부터 접종하는 게 순서라는 입장이다.제주도는 정부가 이달 말부터 지자체의 자체 계획에 따른 자율 접종을 실시하기로 함에 따라 도내 자율접종 추진 대상을 결정했다.총 접종 인원은 3만5000명으로 위험도에 따라 6단계로 분류했다. 학원강사, 콜센터 근무자, 공항만 근무자를 포함하는 1순위가 2만3000명, 사회복지시설 종사자 등 2순위가 2100명, 대중교통 종사자와 대민업무 종사자 등 3순위 1만3000명, 외국인과 경매 종사자, 어업인 등 접종 소외계층 2400명 등이다.제주도가 우선 접종 대상자로 정한 1순위 접종 대상자에는 고위험시설 직군으로 유흥시설 종사자가 포함됐다. 도는 이들을 포함해 피부 관리, 목욕업 종사자 등 3000명을 최우선 접종 대상자로 묶었다. 도는 금주 중 대상 인원을 확정해 이르면 오는 26일부터 접종을 시작한다는 방침이다.이 같은 계획이 알려지자 제주도청 게시판에는 항의 글이 빗발치고 있다. 학생과 청년 등 맞고 싶어도 맞지 못 하는 도민이 많은데 사회 필수 인력이 아닌 유흥업계에 우선권을 주는 것은 형평성에 어긋난다는 것이다.유흥업소의 경우 우선 접종보다는 엄격한 방역 수칙을 적용하는 게 먼저라는 지적도 제기된다. 제주지역 온라인 카페에도 이와 관련한 불만의 글들이 계속 올라오고 있다. 이에 대해 제주도는 현실적인 판단이라는 강경한 입장이다. 자연 환기가 어려운 실내에서 마스크 없이 밀접 접촉하는 업종 특성상 감염 취약지라는 현실적 여건을 고려해야 한다는 것이다. 자율 접종을 시행하는 이유가 지역 내 고위험 대상자를 우선 선정해 결국 도민을 보호하는 데 있다는 주장이다.실제 제주에서는 지난 5일 서귀포시 소재 한 유흥주점에서 첫 확진자가 발생한 후 현재까지 유흥주점 관련으로 3개의 집단 감염 사례가 생겨나며 총 58명이 확진 판정을 받았다. 이는 이달 확진자(168명)의 34.5%로 확진자 3명 중 1명이 유흥시설 종사자이거나 방문자인 셈이다. 임태봉 제주코로나방역대응추진단장은 14일 코로나19 브리핑에서 “최근 도내 유흥주점 발 감염자들은 모두 도가 지난 1일 유흥주점 영업제한을 해지한 이후 유흥업소를 방문했다가 감염된 경우”라며 “감염 취약 업종 종사자에 우선 접종함으로써 결국은 우리의 가족과 지역 사회가 보호 받을 수 있게 될 것”이라고 강조했다.이런 가운데 제주도는 이날 오후 제주도내 모든 유흥시설에 대해 무기한 집합금지 행정명령을 발동했다.이는 개편된 사회적 거리두기 4단계에 해당하는 밤 10시 이후 운영 제한 보다 강화된 조치다. 이에 따라 도내 모든 유흥시설 1356곳은 15일 0시부터 별도 해제 시까지 영업을 중단해야 한다.제주=문정임 기자 moon1125@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>제주도 거리두기 3단계 격상에 관광업·자영업계 '한숨' 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도 거리두기 3단계 격상에 관광업·자영업계 '한숨' "최저임금 인상이어 영업 제한 타격 커" 시민 반응 엇갈려…"백신 인센티브 아쉬워"VS"고통 최소화" (제주=뉴스1) 고동명 기자, 오미란 기자, 오현지 기자					| 2021-07-16 16:49 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주 지역 코로나 확산세가 이어지고 있는 15일 오후 제주보건소 선별진료소에서 시민들이 대기하고 있다. 2021.7.15/뉴스1 © News1 오현지 기자 코로나19확진세가 지속되자 제주도가 16일 사회적거리두기를 3단계로 격상해 자영업자들과 관광업체들이 한숨을 쉬고 있다.한달전인 6월 중순까지만 해도 여름 성수기를 앞두고 단체관광 시장이 재개될 것이라는 기대감에 부풀었던 관광업계는 다시 고개를 떨궜다.제주관광협회 관계자는 "7월 하루 관광객이 지난달에 비해 10~20% 감소했다"며 "거리두기가 격상되면 관광시장이 다시 위축될 수 있다"고 전했다.이 관계자는 "일부 특급호텔과 항공사는 예정했던 단체관광객 관련 행사를 취소하는 등 단체관광 부활도 다시 미뤄진 상태"라고 말했다.최저임금 인상에 이어 거리두기까지 격상된다는 소식에 자영업자들의 불만도 크다.박인철 제주도 소상공인연합회장은 "내년도 최저임금이 인상된 게 불과 며칠 전 아니냐"며 "울고 있는데 뺨 때리는 격"이라고 토로했다. 제주 지역 코로나 확산세가 이어지고 있는 15일 오후 제주보건소 선별진료소에서 시민들이 대기하고 있다. 2021.7.15/뉴스1 © News1 오현지 기자 박 회장은 "방역조치를 강화해야 하는 상황을 이해하지 못하는 건 아니지만 소상공인들을 생각한다면 적어도 이렇게 널뛰기식으로 하면 안 된다"면서 "당장 고용 문제도 걱정스러운 데 사실상 이번 피서철 성수기 업계 위축은 불가피하다"고 우려했다.한국외식업중앙회 제주도지회 관계자는 "확진자 감염 경로를 보면 일반식당에서 걸리는 경우는 매우 드문데 일반음식점들까지 방역 수칙을 강화하는 건 억울한 면이 있다"고 했다.이 관계자는 또 "코로나 이후 휴폐업한 식당이 늘어났고 일부는 가게를 넘기고 싶어도 인수하는 사람이 없어 적자를 보며 울며 겨자먹기식으로 운영하고 있는 실정"이라고 말했다.시민들의 반응은 엇갈린다.회사원 김모씨(41)는 "방역이 우선인데 어쩔수 없는 것 아니냐"면서도 "모처럼 여름휴가를 즐길 수 있을 거라고 생각해 발품을 팔아 백신 접종을 했는데 백신 인센티브까지 사라지니 아쉽다"고 말했다.또 다른 시민 강모씨(34)는 "코로나 대유행이 길어질수록 경제 문제는 더 심각해질 것"이라며 "당장은 다들 힘들겠지만 방역 강화는 고통을 최소화하는 방안이라고 생각한다"고 말했다. kdm@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 "연하 남편·여직원, 시댁서 동거…시모는 며느리 대접" 선우은숙 "만난지 석달…유영재 '나 믿고 함께하자' 말에 결혼" 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" '음주운전' 신혜성, 측정 거부해 체포 "죄송…차량 절도는 아냐" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>돌하루팡, 2021년 제주도렌트카 우수관광사업체 지정 - 세계일보 Facebook Twitter Naver 전체뉴스 금융 은행 보험 2금융 카드 증권 주식/펀드 채권/외환 산업 재계 IT/통신 중공업 중기/벤처 유통 유통 소비자 부동산 주택 건설 의약 제약 바이오 병원 워라밸 여행/레저 자동차 인물 인사/동정 부고 오피니언 외부기고 기자수첩 . . 검색 돌하루팡, 2021년 제주도렌트카 우수관광사업체 지정 정희원 기자 happy1@segye.com 입력 2021-07-21 08:55:00 수정 2021-07-20 17:31:26 [정희원 기자] 제주도렌트카 가격비교 플랫폼 ‘돌하루팡’이 2021~2023년 우수관광사업체로 지정됐다. 우수관광사업체는 고품질·고품격 서비스를 두루 갖추고 제주특별자치도 내에 기여를 한 사업체를 일컫는다. 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등을 위주로 평가된다. 전문가들로 구성된 평가위원들의 현장평가와 평정위원회의 엄격한 심의를 거친 이번 공모는 관광지, 교통, 숙박업, 여행업, 음식업 등 5개 분야를 대상으로 진행됐다. 돌하루팡은 여행업 분야에서 인정받았다. 돌하루팡은 도내 83개 업체, 1만8000여대 이상의 제휴로 고객 편의를 높이고 있다. 고객은 물론 업체와도 상생할 수 있는 다양한 정책을 시행하고 있다. 돌하루팡 관계자는 “이번 우수관광사업체지정을 시작으로 제주특별자치도와 고객, 파트너사 모두를 만족시키는 윈윈관계를 이어나갈 것”이라며 “끊임없는 개발과 개선을 통해 사회적으로도 기여하도록 노력하겠다”고 밝혔다. happy1@segye.com 20210720515572 0521010000000 0 2021-07-21 8:55:0 2021-07-20 17:31:26 0 돌하루팡, 2021년 제주도렌트카 우수관광사업체 지정 정희원 2358204b-4d92-490d-b5f1-23493fd8905e happy1@segye.com ⓒ 세계비즈 &amp; segyebiz.com, 무단 전재 및 재배포 금지 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오피니언 [기고] 건축만 리모델링? 이젠 보험 리모델링은 선택 [기고] 스타트업 투자 빙하기의 생존 전략 [기고]매파적 연준, 금리인상의 끝은 어디일까 [기고]글로벌 경제, ‘디스토피아’ 그림자 드리워져 [기고]최저치와 최고치를 갈아 치우고 있는 주택시장 [기고] 가업승계와 관련된 세제개편안 [기고]다락같이 오른 소득 대비 주택 금융비용 그래픽뉴스 "‘착오송금 구제법’ 다룰 정무위 면면 촉각" 기획특집 [요즘 뜨는 핫플레이스⑦]NH투자증권 [요즘 뜨는 핫플레이스⑥] 대세는 팝 [요즘뜨는 핫플레이스⑤] 테라스 앉아 [해외서 돌파구 찾는 4대 은행 &lt;下&lt;&gt;下&lt;&gt; 많이 본 뉴스 CSR 벨톤보청기 광명난청센터, 광명 노인의 컴패션, 니카라과 교회 설립 위한 모 우주텍, 기능성 인솔 ‘닥솔’ 아주대 사단법인 좋은변화, KB손해보험와 함 비락, 2022년 초록우산 아이리더 인물 [부고] 장영순 현대이지웰·현대드림투 [부고]심혁(NH투자증권 강남금융센터 [부고]김지준(키움증권 상무)씨 부친 [부고] 김재경(MG손해보험 일반보험 [부고] 김영곤 (우리카드 ESG경영 글씨 크게 글씨 작게 이메일로 보내기 인쇄하기 금융 은행 보험 2금융 카드 증권 주식/펀드 채권/외환 산업 재계 IT/통신 중공업 중기/벤처 유통 유통 소비자 부동산 주택 건설 의약 제약 바이오 병원 워라밸 여행/레저 자동차 Family Sites 세계일보 스포츠월드 회사소개 광고안내 독자인권위원회 개인정보취급방침 이용자약관 고객센터 RSS 제호: 세계비즈 주소: 서울특별시 용산구 서빙고로 17 등록번호 : 서울 아01555 등록일(발행일) : 2011년 3월 18일 발행/편집인 : 정희택 (대표전화 : 02-2000-1800) 청소년보호 책임자 : 송광섭   | Copyright ⓒ segyebiz.com. All rights reserved. &lt;인터넷신문위원회 윤리강령을 준수합니다.&gt;</t>
+  </si>
+  <si>
+    <t>제주도, 거리두기 3단계 속 '방역·관광' 고민 깊어져 - 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’ × 전체기사 전국은지금 전체 인물열전 핫플레이스 페스티벌 파워인터뷰 전국 전체 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 정치 전체 정치일반 지방정치 국민의선택 경제 전체 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 전체 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 교육 전체 교육일반 교육행정 문화 전체 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 국제 ESG・CSR 연구소 전체 ESG경영 CSR가치실천 ESG・CSR 칼럼 오피니언 전체 서길원 대기자 세상읽기 김연식의 생각이 있는 아침 한상규의 알기쉬운 회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 전체 人사이드 새인물 인사 부음 동정 전국매일신문배 코리아오픈 하프파이프대회 기획특집 전체 기획특집 기획보도 포토·영상 전체 전매VIEW 전매TV 그래픽뉴스 종합 전체 종합 2020 신년사 로그인 회원가입 모바일웹 지면보기 2022-10-11 14:40 (화) NOW 서울서 권총 맞아 쓰러진 50대…"극단적 선택 추정" 시민단체 "정부, 위기때마다 여가부 폐지 내세워…즉각 철회해야" 물품대금 5억 빼돌린 안성 지역농협 직원 자수 신규확진 1만5476명 '감소세' 지속 전국 흐리다 차차 맑아져…아침 최저 4~13도 정치 정치일반 지방정치 국민의선택 경제 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 전국 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 교육 교육일반 교육행정 문화 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 오피니언 서길원 대기자세상읽기 김연식의생각이 있는 아침 한상규의 알기쉬운회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 人사이드 새인물 인사 부음 동정 기획특집 기획특집 기획보도 전국은지금 인물열전 핫플레이스 페스티벌 파워인터뷰 전매TV 기사검색 전국은지금 인물열전 핫플레이스 페스티벌 파워인터뷰 전국 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 정치 정치일반 지방정치 국민의선택 경제 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 교육 교육일반 교육행정 문화 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 국제 ESG・CSR 연구소 ESG경영 CSR가치실천 ESG・CSR 칼럼 오피니언 서길원 대기자 세상읽기 김연식의 생각이 있는 아침 한상규의 알기쉬운 회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 人사이드 새인물 인사 부음 동정 전국매일신문배 코리아오픈 하프파이프대회 기획특집 기획특집 기획보도 포토·영상 전매VIEW 전매TV 그래픽뉴스 종합 종합 2020 신년사 전국매일신문지면보기 지방시대지면보기 전체기사 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 이전 다음 제주도, 거리두기 3단계 속 '방역·관광' 고민 깊어져 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 전국 제주 제주도, 거리두기 3단계 속 '방역·관광' 고민 깊어져 제주취재본부/ 양동익기자 승인 2021.07.19 16:16 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 지난 주말 관광객 11만2천명...확진자 급증속 30~40% 타지역 거주자 관광업계 파장 촉각..."손씻기·마스크 착용 등 방역수칙 준수 당부" 제주도가 코로나19 방역과 지역경제 사이에서 고층을 호소하고 있다. 사진은 제주시청사 전경. 제주도가 코로나19 방역과 지역경제 사이에서 고층을 호소하고 있다. 이달들어 제주지역에는 코로나19 확진자가 급증하기 시작했다. 지난 6일 19명의 확진자가 나오며 한 달 만에 두 자릿수 확진자가 나온 이후 17명→31명→10명→24명→7명→19명→21명→9명→10명→14명→11명→11명 등으로 대부분 두 자릿수 확진자를 유지하며 확산세가 이어지고 있다. 특히 이달 확진자 중 30∼40％가 다른 지역 거주자여서 관광산업이 중요한 제주의 고민이 깊어지고 있다. 제주도관광협회에 따르면 지난 16∼18일 총 11만2421명의 관광객이 찾은 것으로 집계됐다. 도내 유흥시설 집합 금지 행정명령이 이뤄지고, 거리두기 3단계 격상을 발표하는 등 보다 강화된 방역 지침을 내놨지만 16일 3만7687명, 17일 3만8158명, 18일 3만6576명의 관광객이 방문했다. 코로나19 4차 대유행에도 불구하고 여전히 많은 관광객이 제주를 찾고 있는 셈이다. 2∼4일 10만5316명 → 둘째 주말(9∼11일) 10만7904명 → 셋째 주말(16∼18일) 11만2421명 등 갈수록 보다 많은 관광객이 제주를 찾고 있다. 7월 들어 제주 하루평균 관광객은 3만5496명으로, 이 추세라면 이달에도 월 관광객 100만명을 넘게 된다. 제주는 19일 0시를 기해 제주의 거리두기 단계가 3단계로 격상, 5인 이상 사적 모임이 금지해 관광업계는 그 파장에 촉각을 곤두세우고 있다. 임태봉 제주코로나방역대응추진단장은 "방역은 감시와 통제만으로 절대 해결되지 않는다"며 "휴가철 자칫 긴장감이 완화될 수 있지만, 제주에서는 반드시 실내·외를 불문한 마스크 착용, 손 씻기, 출입 기록 관리, 소독·환기 등 도민과 관광객들이 경각심을 가지고 자발적인 방역수칙 준수에 동참해달라"고 당부했다. [전국매일신문] 제주취재본부/ 양동익기자 waterwrap@jeonmae.co.kr 저작권자 © 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’ 무단전재 및 재배포 금지 제주취재본부/ 양동익기자 다른기사 보기 관련기사 제주 18명 신규 확진…원희룡 "방역 위반 책임 묻겠다" 당신만 안 본 뉴스 박민영 측 "강종현과 결별..금전지원 없었다" 4~7일 오전 8시 4호선 전장연 시위…열차운행 지연 예정 "정부, HMM 민영화 2025년 말까지 완료" '학폭 의혹' 박혜수, 2년 만에 부산국제영화제 참석 '송가인 전국투어 콘서트' 8일 목포 공연 개최 정당 지지율, 민주 46.1%・국민의힘 35.3% 이수희 강동구청장, 원희룡 국토부장관 만나 GTX-D 노선 유치 협의 박민영 측 "강종현과 결별..금전지원 없었다" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 주요기사 무릎인공관절 수술, 연골 손상 심각하다면 고려 성일종 의원 “서산·태안 행정안전부 특별교부세 총 55억 확보” "한컴 아로와나 코인 시세조작 의혹 조사하라" 강원 고성, 방어 풍어에 어민 '분주' 보령시, 보고·듣고·감동하는 '청렴 문화제' 연다 눈밑지방재배치, 수술 시 상태에 맞춰 계획해야 최신뉴스 무릎인공관절 수술, 연골 손상 심각하다면 고려 성일종 의원 “서산·태안 행정안전부 특별교부세 총 55억 확보” "한컴 아로와나 코인 시세조작 의혹 조사하라" 강원 고성, 방어 풍어에 어민 '분주' 보령시, 보고·듣고·감동하는 '청렴 문화제' 연다 전국은지금 인물열전 핫플레이스 페스티벌 파워인터뷰 전국 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 정치 정치일반 지방정치 국민의선택 경제 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 교육 교육일반 교육행정 문화 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 국제 ESG・CSR 연구소 ESG경영 CSR가치실천 ESG・CSR 칼럼 오피니언 서길원 대기자 세상읽기 김연식의 생각이 있는 아침 한상규의 알기쉬운 회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 人사이드 새인물 인사 부음 동정 전국매일신문배 코리아오픈 하프파이프대회 기획특집 기획특집 기획보도 포토·영상 전매VIEW 전매TV 그래픽뉴스 종합 종합 2020 신년사 회사소개 윤리강령 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 서비스 전체보기 경기도 성남시 수정구 성남대로 1222 (수진동, 예농빌딩) 법인명 : (주)전국매일신문 제호 : 전국매일신문 등록번호 : 경기, 가00043 발행일 : 1997-06-24 등록일 : 2010-03-23 부가통신사업신고번호 : 제 2-01-22-0081 호 대표전화 : 1588-5762 팩스 : 031-758-4360 발행·편집인 : 박종문 청소년보호책임자 : 총괄이사 전석하 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’ 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’. All rights reserved. mail to jm5600@nate.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광지 14개 우수관광사업체 지정 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도, 관광지 14개 우수관광사업체 지정 정기후원 제주도, 관광지 14개 우수관광사업체 지정 현창민 기자(=제주) | 기사입력 2021.07.05. 10:40:50 페이스북 트위터 카카오스토리 밴드 URL복사 제주도는 올해 상반기 관광지 숙박업 여행업 음식업 등 4개 분야에서 14개 업체를 우수관광사업체로 지정했다고 5일 밝혔다. 이번 우수관광사업체로 지정된 업체는 관광지 10곳 숙박업 1곳 여행업 2곳 음식업 1곳이다. ▲.ⓒ제주도청 제주도는 자율적 경쟁을 통한 품질 향상 및 서비스 개선 등 관광사업체의 경쟁력 강화를 위해 매년 상 하반기 우수관광사업체 공모에 참가한 관광사업체의 신청서류 등 자격요건을 심사한 후 전문가들로 구성된 평가위원들의 현장평가를 거쳐 90점 이상 취득한 업체를 대상으로 우수관광사업체 평정위원회 심의를 거쳐 지정하고 있다. 이번 지정된 14개 업체에는 우수관광사업체 지정서 및 인증패가 수여되며, 홍보지원금 80만 원이 지급된다. 또한 도 관광 정보시스템 및 유관기관 홈페이지 SNS(블로그 인스타그램 페이스북 유튜브) 리플릿 지도 등 홍보물을 통한 홍보 인센티브도 주어진다. 김승배 도 관광국장은 “코로나19 장기화에 따른 관광사업체의 어려운 경영 환경 속에서도 우수한 관광사업체를 발굴해 제주관광에 대한 신뢰도를 확보해나가겠다”며 “온라인마켓 탐나오 입점 및 구매 이벤트 등 선정된 업체에 대한 인센티브 확대 등 다양한 지원방안을 모색해 나가겠다”고 밝혔다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도, 관광지 14개 우수관광사업체 지정 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광체육위원회 영상·문화시설 현장방문 주메뉴 바로가기 본문 바로가기 2022.10.09 (일) 카카오채널 RSS 모바일보기 흐림서울 14.4℃ 흐림제주 19.1℃ 흐림고산 19.4℃ 흐림성산 20.4℃ 흐림서귀포 19.3℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회 문화관광체육위원회 영상·문화시설 현장방문 서유주 기자 news@jejutwn.com 등록 2021.07.19 19:32:51 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 19일, 제주 실내 영상스튜디오 및 현대미술관 현황청취 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회(위원장 안창남)는 제397회 제주도의회 임시회 기간 중에 지난 15일 제주시 사라봉 다목적 체육관 현장방문에 이어 19일에 두 번째 현장방문에 나선다. 제주시 한경면에 소재한 제주 실내 영상스튜디오의 조성에 따른 운영 준비점검과 현대미술관의 실감콘텐츠 영상관 운영사업에 대한 현황 청취를 받는다. 현장방문에 앞서 안창남 위원장은 “제주의 영상촬영과 제작지원을 위해 실내 스튜디오와 야외 촬영장 등의 시설을 갖춘 제주실내영상스튜디오가 오는 8월 개관을 앞두고 있다. 실내스튜디오 운영을 활성화해 제주 영상문화의 진흥과 영상산업의 경쟁력을 강화하고, 제주의 풍부한 로케이션 자원과 연계운영으로 지역경제 활성화에 기여할 수 있기를 바란다”고 밝혔으며, 또한, 제주현대미술관의 소장품을 활용해 기존 미디어아트와 차별화된 몰입형 영상관과 체험프로그램을 운영하고 있고, 향후 시범무료 운영에서 유료관람으로 전환될 예정임에 따라 전시 콘텐츠 확대를 통한 국내외 작가들의 참여 활성화 뿐 만 아니라 예술과 과학이 어우러진 차별화된 예술공간으로 거듭날 수 있기를 바란다“고 강조했다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 제주 오션갤러리, 시행사 보유분 특별분양 3 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 4 [TW포토] 2022 제주레저힐링축제 새별오름 공연 5 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 6 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 7 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 8 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 9 제주시 서부보건소, 코로나 넘어 건강한 일상으로!『고고당 잡게 오몽하게 마씸』 10 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 실시간 뉴스 2022-10-07_FRI 창작오페라 「홍윤애」 제작발표회 19:15 제주특별자치도, 도심항공교통 상용화 시험대... 자율비행 드론 이용해 피자 배달 16:31 [TW포토] 제61회 탐라문화제 산지천 주변, 산지천갤러리 15:26 제주특별자치도의회, 참신한 정책 도민과 함께 만들어 갑니다 15:20 제주특별자치도, 40년만의 미국 인플레이션 살피는 까닭? 15:18 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 09일 00시 01분 최상단으로</t>
+  </si>
+  <si>
+    <t>거리두기 4단계? 제주도 가야지…1주새 관광객 3000명↑ :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 거리두기 4단계? 제주도 가야지…1주새 관광객 3000명↑ 등록 2021.07.12 13:37:41 작게 크게 이달 제주 확진자 2명 중 1명 외부요인 감염 수도권 방역 강화, 제주로 관광객 몰릴 우려도 여름 휴가철 겹쳐 방역 고심…“최대 위기 상황” [제주=뉴시스] 우장호 기자 = 코로나19 4차 대유행으로 수도권 사회적 거리두기 4단계 시행을 하루 앞둔 11일 오후 제주국제공항 1층 도착장이 관광객들로 붐비고 있다. 2021.07.11. woo1223@newsis.com [제주=뉴시스] 양영전 기자 = 제주에서 이달 들어 발생한 코로나19 확진자 2명 중 1명은 타지역 확진자 접촉 등 외부요인에 의한 감염으로 확인된 가운데, 12일부터 수도권 사회적 거리두기가 강화되면서 제주로 유동 인구가 몰려 확산세를 가속화하는 것 아니냐는 우려가 나온다. 제주도에 따르면, 전날인 11일 제주에서 7명의 코로나19 신규 확진자가 발생해 누적 확진자도 1393명으로 늘었다. 이달 들어 발생한 128명의 확진자 중 제주도민 혹은 도내 거주자는 76명(59.3%)이며, 나머지 52명(40.6%)은 다른 지역 거주자다. 특히 이달 신규 확진자 중 40.6%(52명)는 제주가 아닌 타지역을 방문한 이력이 있거나, 타지역 확진자와 접촉해 추가 감염된 것으로 조사됐다. 이들 중 4명은 해외 입국자다. 또 이달 확진자 128명 중 타지역 확진자 접촉 등 외부 요인으로 인해 확진된 사례는 67명으로 전체의 52.3%를 차지한다. 이런 상황에서 정부가 이날부터 수도권의 사회적 거리두기 단계를 최고인 4단계로 격상하면서 상대적으로 방역 조치가 완화된 제주로 관광객이 몰리는 ‘풍선효과’에 대한 우려도 나온다. 제주에선 사회적 거리두기 2단계가 이날부터 2주간 적용된다. 사적 모임은 6인까지 가능하고, 식당과 카페 등은 자정까지 매장 영업이 가능하며, 유흥주점은 오후 10시까지 문을 연다. 실제로 지난 주말 제주 입도객은 9일 3만3979명, 10일 3만6095명, 11일 3만7388명으로 3일 간 10만7462명이 제주를 찾았다. [제주=뉴시스] 우장호 기자 = 장마가 소강상태를 보이는 11일 오후 제주시 한림읍 협재해수욕장을 찾은 피서객들이 물놀이를 하며 더위를 식히고 있다. 2021.07.11. woo1223@newsis.com 1000명대 확진자가 나오며 4차 대유행이 본격화한 지난 7일 직전 주말인 2~4일 10만4746명보다 오히려 3000여명이 늘었다. 특히 여름 휴가철과 겹쳐 제주 방문객은 더 늘어날 가능성도 있다. 제주 관광업계 관계자는 “수도권의 경우 오후 6시 이후 사적 모임이 2인까지만 허용되는데, 사실상 퇴근 이후 외부 활동을 할 수 없게 되는 것”이라며 “제주뿐 아니라 (상대적으로 방역조치가 완화된) 다른 지역으로 유동 인구가 몰릴 수 있다”고 전망했다. 제주도 방역당국도 외부 요인에 의한 감염 확산에 신경을 곤두세우고 있다. 도 방역당국은 앞으로 2주간 사회적 거리두기 2단계를 적용하지만, 확산 추이에 따라 방역 조치를 즉시 강화할 수 있도록 준비한다는 계획이다. 도 방역당국 관계자는 “현재 아주 엄중한 상황이다. 국민 여러분도 조금이라도 증상이 있으면 제주 방문을 삼가고, 제주 여행 전에 반드시 코로나19 검사를 먼저 받아주기 바란다”고 밝혔다. 원희룡 제주지사도 이날 주간정책조정회의에서 “현재 수도권에서 ‘3인 이상 모임 금지’ 등이 실시되는 등 전국적으로 코로나19 방역이 최대 위기 상황”이라며 “휴가철을 맞아 제주도내 방역 체계를 점검하고, 때에 맞게 적절하게 대응해야 한다”고 당부했다. ◎공감언론 뉴시스 0jeoni@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 지어소프트, 8회차 CB 전환가액 하향 조정 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 금호석유화학 주가, '나홀로 질주' 비결은 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 지어소프트, 8회차 CB 전환가액 하향 조정 금감원, 금융사 직원에 '프리패스 출입증' 발급 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>거리두기 4단계 시행 앞두고 제주도 찾은 관광객들 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 사회일반 urlhttps://www.sedaily.com/NewsView/22OUHIDPY8 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 사회 사회일반 거리두기 4단계 시행 앞두고 제주도 찾은 관광객들 입력2021-07-09 13:55:03 수정 2021.07.09 13:55:03 오승현 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 viewer 정부가 수도권 사회적 거리두기를 4단계로 격상을 결정한 9일 오후 제주공항이 입도객들로 인산인해를 이루고 있다.사회적 거리두기 최고 수위인 4단계는 오는 12일 본격 시행된다./제주=오승현 기자 2021.07.09 &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 구독 오승현 기자 사진부 story@sedaily.com 배우 박해수, 서명도 품격있게 '조니워커 블루'에 서명하는 배우 유라 기자채널로 이동 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 유승민 "정진석, 이재명 덫에 놀아나…비대위원장 사퇴해야" #국감 초점 "민간인 사찰"…국토위 국감장에서도 '감사원' 도마 위에 #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 "키스 5단계는" "치마 짧으면 좋다"…중학교 선생님이 건넨 농담 이시간 주요 뉴스 영상 뉴스 생방송 중 러 미사일 '쾅'…BBC 특파원 긴급 대피 '아찔' '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 SE★시리즈 드림캐쳐 다미, 그룹의 중심이 바로 나야 [SE★포토] 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 "지금 사면 손해 안 본다?"…삼성전자·NAVER 줍줍[주식 초고수는 지금] 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>[특징주] 레드캡투어, '관광객 급증' 치솟는 제주도 렌터카 요금에 부각 - 머니S 본문영역 바로가기 2022.10.11 | 14:55:02 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소 더보기 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소2분전 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다5분전 온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순7분전 DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"11분전 남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축13분전 [머니S포토] 질의 답변하는 이종국 SR대표이사17분전 최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"19분전 [머니S포토] 코레일·SR 등 2022 국회 국토위 국감19분전 광주신세계, 감홍사과 등 '가을 제철과일 모듬전'22분전 [머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장24분전 2022.10.11 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 [특징주] 레드캡투어, '관광객 급증' 치솟는 제주도 렌터카 요금에 부각 머니S 이지운 기자|조회수 : 5,653|입력 : 2021.07.12 09:27 기사공유 댓글남기기 폰트크게 폰트작게 프린트 렌터카업체 레드캡투어의 주가가 상승세다. 12일 오전 9시25분 레드캡투어는 전 거래일 대비 800원(3.16%) 오른 2만6100원에 거래되고 있다. 신종 코로나바이러스 감염증(코로나19) 팬데믹으로 해외 여행길이 막히면서 제주도로 떠나는 사람이 늘어나고 있다. 이에 제주도 관광객이 늘어나면서 렌터카 가격도 폭등하는 양상이다. 제주도 렌터카 가격 비교 사이트 '제주THE렌트카'에 따르면 극성수기인 7월 말 평일 하루 요금은 모닝 11만~16만원, K3 11만~18만원, 쏘나타 11만~22만원, 그랜저 15만~26만원, 제네시스 G80 23만~47만원 등으로 형성됐다. 완전 자차 보험을 선택해도 소형차를 하루 1만원에 빌릴 수 있었던 작년과는 상황이 달라졌다.한편 레드캡투어는 기업을 대상으로 차량 장기 렌털 사업과 항공권 및 호텔 예약 대행 등 사업을 진행한다. 일반 여행업체들과는 달리 B2B(기업 간 전자상거래) 형태로 운영돼 코로나19 피해를 크게 입은 다른 여행주와 달리 이익 성장세를 이어왔다. 이지운 lee1019@mt.co.kr 머니S 증권팀 이지운입니다. 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다"'암투병' 엄앵란, 근황 공개… "관절수술 후 거동 불편해"박시연, '음주운전' 이후 첫 공식석상… 손담비가 남긴 댓글은?무주 생일 모임 일가족 참사… 원인은 일산화탄소 중독?'친중행보 논란' 헨리, 빨갛게 부어 버린 얼굴… 대체 무슨 일?흑인 팬 하이파이브 거부?… '조이♥' 크러쉬 "제스처 오해" 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소김태형 감독, 8년 만에 두산 지휘봉 내려놓는다온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축[머니S포토] 질의 답변하는 이종국 SR대표이사최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"[머니S포토] 코레일·SR 등 2022 국회 국토위 국감광주신세계, 감홍사과 등 '가을 제철과일 모듬전'[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 '12월 결혼' 티아라 지연♥황재균, 헬스장 데이트 '달달'18세 박유진, 전 재산 3만원인데… 한달 배달료만 80만원?한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥'최강희 근황, 시간당 1만원 고깃집 설거지 알바?'13세 나이 차' ♥정준과 결별설… 김유지 근황 보니?박수홍 응급실 실려갈 때… "'폭행' 父는 형수와 식사""하정우 슬퍼하더라"… 차현우♥황보라, 이미 법적 부부?'돌싱글즈3' 이소라, 안면 골절→응급실행… ♥최동환 "회복하자""아이폰을 입에?"… 지드래곤, 어마어마한 플렉스 면모YG "제니 개인사진 최초 유포자 경찰수사 의뢰" 코스피 : 2186.72 46.1214:37 10/11 코스닥 : 669.44 29.0514:37 10/11 원달러 : 1435.00 22.614:37 10/11 두바이유 : 96.51 2.1514:37 10/11 금 : 1675.20 34.114:37 10/11 재테크 [법률S토리] 과세특례 활용으로 절세해 볼까 BOOK [신간] 스타트업이 성장형 기업으로... 세계적 경영자의 동력과 신념 맛집로드 [맛집로드] 식탁 위에 펼쳐진 지속 가능한 미식, 비건 맛집 머니S리포트 한화, 대우조선 이어 KAI도 품을까 창업정보의 모든 것! [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? 연휴 끝난 코스피, 2200선 하회… 삼성전자는 3%대 하락 "간사 간 협의해라"… 감사원 국감, 개의 '8분'만에 파행 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 코레일·SR 등 2022 국회 국토위 국감 SLIDE[머니S포토] 코레일 "감사원에 통상적 절차 답변…정보보안 철저히" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 코레일 '나희승' SLIDE[머니S포토] SR 이종국 "사전정보 보안 내부적 철저히...자료제공 면밀히" SLIDE[머니S포토] 철도공단 김한영 "철도 수송분담률 대폭 높일 것" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 SLIDE[머니S포토] 질의 답변하는 이종국 SR대표이사 SLIDE[머니S포토] 감사원 국감, 질의 경청하는 최재해·유병호 SLIDE[머니S포토] 최재해 감사원장 "정치적 중립지키며 공정 감사 노력" SLIDE[머니S포토] 생각에 잠긴 최재해 감사원장 SLIDE[머니S포토] 안경 고쳐쓰는 유병호 사무총장 SLIDE[머니S포토] 감사원 국정감사, 대화하는 최재해·유병호 SLIDE[머니S포토] 법제사법위원회 감사원 국정감사 SLIDE[머니S포토] '2022 국정감사' 여야 간사와 대화하는 김도읍 위원장 SLIDE[머니S포토] 감사원 국정감사, 여야 신경전으로 파행 SLIDE[머니S포토] 국정감사 증인 선서하는 최재해 감사원장 SLIDE[머니S포토] 2022 금감원 국감, 인사 나누는 이복현·강병원 SLIDE[머니S포토] 금감원 "금융권 횡령사고 및 이상 외환거래 등 신속·강력 대응" SLIDE[머니S포토] 이복현 "공매도 국민 눈높이 맞춰 형평성 있게 보완" SLIDE[머니S포토] 2022 금감원 국정감사, 의견 나누는 이복현·이명순 SLIDE[머니S포토] 금감원 이복현 "불법·불공정 거래행위 뿌리째 뽑을 것" SLIDE[머니S포토] 2022 정무위 국감, 질의 답변하는 이복현 금감원장 SLIDE[머니S포토] 금감원 "소상공·중소기업, 충격없이 연착륙하도록 지원" SLIDE[머니S포토] 이복현 "보이스피싱 등 민생침해 금융범죄 척결위해 총력" SLIDE[머니S포토] 2022 한은 국감, 마스크 고쳐쓰는 이창용 총재 SLIDE[머니S포토] 한은 이창용 "IMF 내 韓 외환보유고 적다는 인원 없어" SLIDE[머니S포토] 이창용 'PF·제2금융권 부실 현실화..."문제 될 수 있어"' SLIDE[머니S포토] 통화스와프 관련 질의 답하는 이창용 한은 총재 SLIDE[머니S포토] 한은 이창용 "물가 내년 1분기까지 5%대...하반기 내려갈듯" SLIDE[머니S포토] 2022 국회 기재위 국감, 답변하는 한은 이창용 총재 [기자수첩] 기업 혁신 막는 규제, 이제 버릴 때가 됐다 소비자 안전·환경 등과 관련된 기업 규제는 엄격해야 한다. 반면 미래로 도약하기 위한 혁신만큼은 길을 열어줘야 발전 속도가 빠르고 세계시장을 주도할 수 있다.국내 기업은 규제에 발목이 잡혀 이 같은 논리와 늘 거리가 멀었다. 언제나 현실과 동떨어진 규제가 변화의 흐름을 끊고 발전을 막았다. 편리한 서비스를 원하는 소비자만 피해를 봤다.모빌리티 플랫폼 타다 사례가 대표적이다. 최근 서울중앙지방법원 형사항소1-1부(부장판사 장찬·맹현무·김형작)는 타다를 불법 운영한 혐의로 재판에 넘겨진 이재웅 전 쏘카 대표와 쏘카의 전 자회사 브이씨앤씨(VCNC)의 박재욱 전 대표에 대한 항소심 선고 공판에서 무죄를 선고했다. 이들에게 적용됐던 혐의는 "여객자동차운수사업법" 위반이다. 타다는 운전자가 딸린 11인승 승합차를 이용자에게 빌려주는 서비스다. 이용자는 타다 서비스 이용을 위해 스마트폰 애플리케이션(앱)으로 호출하면 된다. 타다의 운영사이자 과거 쏘카의 자회사였던 VCNC는 쏘카에게 렌.. [법률S토리] 과세특례 활용으로 절세해 볼까[고수칼럼] 계속되는 금리인상 폭탄… 시장이 내딛는 발걸음 따라가야[청계광장]노동기본권에 대한 발상의 전환[기자수첩] 네카오 보험 비교·추천, 이대로 괜찮을까? 제770호한화, 세계 최고의 방위산업체를 꿈꾸다 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 김승연에서 김동관으로… 대 잇는 'M&amp;A 승부사' DNA 새 판 짜는 한화, 중심엔 '김동관 리더십' 한화, 대우조선 이어 KAI도 품을까 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>관광개발 투자 유치 혈안이던 제주도 앞으로 확 달라진다 한국일보 관광개발 투자 유치 혈안이던 제주도 앞으로 확 달라진다 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 관광개발 투자 유치 혈안이던 제주도 앞으로 확 달라진다 입력 2021.07.08 22:00 좋아요 0 0 0 댓글달기 0 관광개발사업 심의 강화 위해 조례 개정문제 있다 판단되면 모두 심의 대상 포함도 “난개발 막고 투자적격 제대로 검증” 공사가 중단된 제주 서귀포시 헬스케어타운 일대 전경. 제주국제자유도시개발센터 제공.관광산업으로 지역의 경제를 돌리고 있다고 해도 과언이 아닌 제주도가 관광개발에 제동을 걸고 나섰다. 불과 10여 년 전까지만 해도 대규모 관광시설과 해외투자 유치를 위해 각종 빗장을 열어젖히던 제주도다. 관광산업이 포함된 제주도의 서비스업 부가가치생산액 비중은 전체 생산액의 75%를 차지한다.제주도는 최근 관광개발사업 심의 대상을 확대하고 사후관리를 강화하는 내용을 담은 ‘제주도 개발사업시행 승인 등에 관한 조례 개정안’을 입법 예고했다고 8일 밝혔다.이에 따라 개발사업심의위의 심의 대상사업 범위가 현행 50만㎡ 이상에서 30만㎡ 이상으로 확대됐다. 더 많은 개발사업에 대해 관여하겠다는 뜻이다. 또 심의 대상에 포함되지 않는 30만㎡ 미만 개발사업의 경우에도 도가 ‘투자적격 여부 등 전문적인 검토가 필요하다’고 판단할 경우 심의위 테이블에 올려놓고 자문을 받을 수 있도록 했다. 도 관계자는 “사실상 자금 조달 능력 등 문제가 있다고 판단되는 모든 개발사업에 대해 도가 직접 사전 검증하겠다는 뜻”이라고 설명했다. 그뿐만 아니다. 개발사업에 대한 지도점검 조항을 신설해 유관부서 협의내용과 승인조건 등에 대한 이행상황을 매년 점검한다. 또 조례는 개발사업심의위 위원도 현재 12명에서 15명으로 늘리도록 해 더욱 깐깐한 심사를 예고했다. 특히 자연·생태분야 전문가를 위원으로 위촉, 환경적 측면의 심사를 강화하기로 했다.제주도가 관광개발에 대한 기조를 틀고 나선 것은 대규모 관광개발 사업으로 지역사회가 몸살을 앓고 있기 때문이다. 많은 사업이 난개발로 이어져 환경 훼손 논란이 있었고, 주민 갈등, 부동산 가격 폭등 등의 후유증이 있었다.실제 제주도 곳곳엔 짓다 만 건축물들이 섬 풍광을 해치고 있다. 서귀포시 토평동 일대에서 중국 부동산 개발회사 녹지그룹이 추진하고 있는 제주헬스케어타운 조성사업은 2017년 5월 이후 공사가 진척이 없다. 국내 첫 영리병원으로 추진됐던 제주국제녹지병원이 무산되고, 자금조달 문제 등 복합적인 이유로 공사재개 시기는 알 수 없는 상황이다. 역시 중국 자본인 ㈜록인제주가 서귀포시 표선면 가시리 일원 52만㎡에 4,600억여 원을 투입해 휴양콘도와 호텔 등을 짓는 록인제주 관광단지 조성사업도 자금조달 문제로 2017년 6월 공사를 중단했다.관광개발에 대한 제주도의 이 같은 정책 변화 배경엔 저가 단체관광의 놀이터에서 벗어나기 위한 전략이라는 분석도 있다. 관광업계 한 관계자는 “코로나19 때문에 지금은 제주도가 인기를 끌고 있지만, 명품 관광지로 거듭나지 않을 경우 또다시 국민들은 해외로 나갈 것”이라고 말했다. 원희룡 제주지사도 제2 제주공항 신설 필요성의 근거 중 하나로 제주 관광의 고급화를 들고 있다.도 관계자는 “조례 개정으로 일부 사업자에게는 불이익이 생길 수도 있다”며 “그러나 사업 승인 이후 오랫동안 진행되지 않는 사업이 많기 때문에 사업계획과 투자적격 여부를 제대로 검증할 필요가 있다”고 말했다. 제주= 김영헌 기자 tamla@hankookilbo.com 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 지역 많이 본 뉴스 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 관광개발 투자 유치 혈안이던 제주도 앞으로 확 달라진다 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>[사회][뉴스큐] 수도권 관광객 '북적북적'..."풍선효과 어쩌나" 제주도 긴장 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제기에 여당... 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 감사원 국감, 시작부터 '파행'...친일 국방 논란 계속 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 [뉴스큐] 수도권 관광객 '북적북적'..."풍선효과 어쩌나" 제주도 긴장 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 학교 비정규직노조, "폐암으로 죽어가"...급... [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제... "자존심 살리려는 절박함"...러시아 보복 공습으로 전... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일 국방' 공세 일축 정진석 "조선, 내부에서 썩어 문드러져 망해"…발언 놓고 논란 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 감사원 국감, 오전 내내 '파행'…친일 국방 논란 계속 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 코스피, 2,200선 붕괴…환율, 장중 1,430원 돌파 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 "자존심 살리려는 절박함"…러시아 보복 공습으로 전황 격화 우려 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 도심에서 50대 권총 맞아…극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 오늘부터 개량백신 접종…신규 확진 1만 5,476명 동시계약 허점 노려 전세대출금 가로채…'신종 사기' 적발 "자격시험 도중 화장실 못하게 하는 건 인권 침해" 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 물가 오름세에 '구제 시장'도 한숨…"손님 있어도 안 사요" 학력 전수평가 5년 만에 사실상 부활…초3~고2로 확대 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 다음 사회 [뉴스큐] 수도권 관광객 '북적북적'..."풍선효과 어쩌나" 제주도 긴장 2021년 07월 12일 16시 11분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 ■ 진행 : 김영수 앵커 ■ 출연 : 임태봉 / 제주 코로나방역대응추진단장 * 아래 텍스트는 실제 방송 내용과 차이가 있을 수 있으니 보다 정확한 내용은 방송로 확인하시기 바랍니다. [앵커] 수도권을 중심으로 코로나가 확산하는 가운데여름 휴가철을 맞아 관광객이 몰리는제주지역에도 비상이 걸렸습니다. 오늘 제주도는 거리두기 2단계로 격상했습니다. 수도권과 비교해 상대적으로 규제가 덜한제주 지역으로의 풍선효과 우려가 나오고 있습니다. 관련 현안, 제주도 임태봉 코로나 방역대응추진단장님 연결해서 이야기 들어보겠습니다. 단장님, 나와 계시죠? [임태봉] 안녕하세요? [앵커] 안녕하십니까. 반갑습니다. 오늘부터 제주가 2단계로 격상을 했습니다. 최근 확진자 숫자가 많이 늘었다고 들었거든요. 얼마나 늘었습니까? [임태봉] 7월 들어서 갑자기 확진자가 많이 늘어나고 있는데요. 7월에 확진자가 늘어난 건 5월과 6월 100만 명 이상의 관광객들이 내방하면서 시차를 두고 발생하고 있거든요. 그래서 최근 일주일 동안 일일 평균자 수가 16명, 그러니까 숫자로 보면, 단계로 보면 3단계 수준입니다. [앵커] 그렇군요. 3단계 수준까지 이미 올라왔기 때문에 일단 2단계로 격상을 했고요. 최근 주간으로 얼마나 많은 관광객들이 제주로 들어오고 있습니까? [임태봉] 조금 전에 말씀드렸지만 4월부터 갑자기 100만 명 이상의 관광객이 오시기 시작했고 5월달에 105만 명, 6월달에만 112만 명, 그리고 7, 8월 지금 휴가철로 연결되고 있기 때문에 우리 제주도 입장에서는 대단히 긴장하면서 방역대책을 마련하고 있습니다. [앵커] 그렇군요. 미리 예약을 하신 분들이 제주도로 들어오고 있는 것이기 때문에 막을 수도 없는 그런 상황입니다. 입도 관광객의 절반 이상은 수도권에서 오고 있다고요? [임태봉] 네, 7월만 보면 128명이 확진되었는데요. 그중에 약 66명 정도가, 그러니까 56% 이상이 관광으로 오시거나 업무차 오신 분인데 거기에 상당수가 다 수도권에서 오신 분들입니다. [앵커] 그렇군요. 실제로 확진자 상당수도 타 지역에서 온 분들이 많다고요? [임태봉] 그렇습니다. 비율로 보면 52%가 되고 있으니까요. [앵커] 52%. 절반 정도가 외지에서 온 분들인데 실제로 공항을 보면 사람들로 많이 붐비던데요. 공항이나 항만에서 선제적으로 PCR 검사를 해야 하지 않을까요? 어떻습니까? [임태봉] 사실은 우리 도에서는 공항특별입도 절차를 통해서 공항에 워크스루를 설치해서 수도권 등 외지에 다녀오신 제주도민들은 다 검사를 받게 하고 있고요. 또 해외 입도자 그리고 관광객들도 조금이라도 증상이 있으면 우리 공항 워크스루에서 다 무료로 검사를 받을 수 있습니다. 다행인 것은 최근에 자진해서 검사를 받는 국민분들이 꽤 많이 늘었습니다. [앵커] 자진해서 검사받는 분들도 늘고요. 그래야 합니다. 그리고 공항의 밀집도를 낮추기 위해서 국제선 탑승구도 개방했다고 들었습니다. 도움이 됐습니까? [임태봉] 네, 지금 현재 한국공항공사에서 국제선을 이용하지 않고 있기 때문에 국제선 탑승구를 국내선으로 전환을 하였습니다. 그래서 일단 휴가철에 대비한 건데요. 현재는 하루 10편 정도, 탑승객 한 2000여 명 정도를 국제선 출발장을 이용해서 분산 탑승을 하게 돼서 거리두기나 밀집도 유지에 상당히 도움이 되고 있습니다. [앵커] 알겠습니다. 그리고 앞서 잠깐 이야기하셨는데 최근 확진자가 늘면서 사실상 거리두기 3단계 기준을 충족했다, 제주 같은 경우에. 그렇게 말씀을 하셨는데 현재 2단계로 격상을 했고요. 그러면 선제적으로 추가 격상도 검토하고 있는 겁니까? [임태봉] 네, 발생자나 집단 발생 클러스터가 시시각각으로 변하고 있기 때문에 저희는 2주 단위가 아니라 1주 단위로 면밀하게 살펴보고 있습니다. 그래서 지금 현재는 3단계를 포함해서 특별방역대책까지 지금 준비, 검토하고 있습니다. [앵커] 알겠습니다. 앞으로 일주일 정도 상황을 좀 더 지켜본 다음에 추가 격상 여부를 검토하고 있다는 얘기 해 주셨습니다. 그렇다면 확진자 수가 조금 더 나오면 그러니까 한 20~30명, 30명~40명. 만약에 더 많이 나온다면 바로 격상이 되겠네요? [임태봉] 우리 도에서는 사실은 숫자가 중요합니다. 그게 핵심 지표니까요. 그런데 숫자 중에는 이번에도 7월달 발생자 중에 타 지역에 선적을 둔 선원들이 상당히 많이 발생했어요. 그래서 숫자도 중요하지만 보조 지표라는 게 있습니다. 그래서 경향성을 보고 또 타 지역, 특히 수도권 같은 경우 4단계로 격상되었기 때문에 타 지역 상황도 저희가 면밀히 분석하고요. 그다음에 병상, 의료 역량이라든가 중증 진행률 같은 것들도 다 종합적으로 검토해서 필요 시점에는 즉시 격상할 수 있도록 준비를 해 놓고 있습니다. [앵커] 만약에 추가로 격상되면 수도권에서 오는 분들의 제주 입도를 자제 요청하거나 아니면 관광에 대한 일부 제한도 하실 계획이 혹시 있습니까? [임태봉] 지금 관광객에 의한 확진자가 지속적으로 나타나고 있기 때문에 어느 단계에서는 지자체장 명의로 행정명령을 통해서 관광객이나 입도객들에게, 특히 관광객에게는 미리 출발 전에 준비하지 않습니까? 그래서 미리 준비할 때 반드시 현지에서 진단검사를 받고 그 검사확인을 하고 들어올 수 있도록 하되 만약에 그렇지 않은 경우에는 구상권 청구 등 행정명령도 지금 검토를 여러 분야, 법적인 문제라든지 여러 분야를 검토하고 있습니다. [앵커] 알겠습니다. 요즘 비상근무하시느라고 매우 바쁘실 텐데 마지막으로 오늘도, 내일도 제주 들어가시는 분들이 있을 겁니다. 그분들에게 꼭 하고 싶은 말씀 있으면 한마디 해 주십시오. [임태봉] 코로나19의 이전과 후의 삶이 우리가 다르듯이 관광도 코로나19 이후의 시대에는 분명히 달라야 됩니다. 그래서 관광객도 물론 와서 즐기는 것을 저희가 막는 것은 아니고요. 여행을 할 때도 이제는 책임과 의무를 다하는 여행이 되어야 되겠습니다. 그래서 우리 제주도를 안전관광을 즐길 수 있는 국민 힐링의 섬으로 함께 노력해 주시기를 당부드립니다. [앵커] 알겠습니다. 고맙습니다. 제주도가 2단계로 오늘 격상했고요. 우리나라 전체로 보면 수도권만 4단계고 3단계는 춘천시 한 곳입니다. 그리고 제주가 2단계로 높였는데요. 방역에 좀 더 철저히 해 주시기 바랍니다. 지금까지 제주도 임태봉 코로나 방역대응추진단장님과 함께 이야기 나눠봤습니다. 잘 들었습니다.[저작권자(c) YTN 무단전재 및 재배포 금지] 사회 기사목록 전체보기 다문화자녀 지원 강화...이중언어 코치·언어발달 지도사 확충 "왜 나 무시해"...지인에게 흉기 휘두른 50대 검거 교육부·대학 사이버 공격 5년 간 21만 건...정보 유출 우려 병원 방문 어려운 노인 위한 '찾아가는 의료' 12월부터 시범사업 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>[제주] 관광객 몰리는 제주도 코로나 확진자 19명, 비상! &lt; 건강 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 14:56 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 세종시민극단 공감 네 번째 연극, '기쁜 우리 장례식' 한국브루크너협회 플룻티스트 마린 가브리엘 초청연주 개최 2022 M소나타 시리즈 백건우 피아노 리사이틀 그라나도스 ‘고예스카스’ 록-다큐 뮤지컬 '웨이스티드', 12월 초연...정연·홍지철 등 캐스팅 [김이율 작가의 문화안녕] 연극배우 권남희를 만나다 [최경헌의 유럽견문록] 10. 기한제 행복 서울문화재단, '서울예술교육축제' 개최...다채로운 예술교육 체험 원광종합병원 김수산 행정원장 "긍정적 투자로 지역주민과 상생할 것" 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [제주] 관광객 몰리는 제주도 코로나 확진자 19명, 비상! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 건강 [제주] 관광객 몰리는 제주도 코로나 확진자 19명, 비상! 기자명 백현석 기자 입력 2021.07.07 12:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 한 달 만에 두 자릿수 '비상' "관광객 몰리는 제주 다른 지역 상황과 연동 [문화뉴스 백현우 기자] 휴가철을 맞아 제주지역 신종 코로나바이러스 감염증(코로나19) 신규 확진자 수가 두 자릿수로 늘어나면서 방역당국이 긴장하고 있다. 제주도는 지난 6일 하루 동안 19명(제주 1286∼1304번)의 코로나19 신규 확진자가 나왔다고 7일 밝혔다. 이로써 현재 제주지역 누적 확진자 수는 총 1천304명으로 늘어났다. 두 자릿수 확진자 발생은 지난 6월 9일 이후 28일만 이다. 도는 제주지역 사회적 거리두기 2단계 조치가 시행된 지난달 10일부터 일일 신규 확진자 수가 한자리 대를 보여 왔으나, 최근 다른 지역을 방문하거나 입도객들이 확진되는 사례가 잇따랐다고 설명했다. [그래픽] 전국 코로나19 확진자 현황/연합뉴스 최근 일주일 동안(6월 30일∼7월 6일) 40명의 확진자가 발생, 주 평균 일일 신규 확진자 수는 5.71명으로 전날 3.29명(6월 29일∼7월 5일) 대비 많이 증가했다. 6일 확진자 19명 중 10명은 제주지역 거주자이며, 9명은 다른 지역에 주소를 두고 있다. 제주 거주자인 10명은 제주지역 확진자의 접촉자다. 다른 지역에 주소를 둔 확진자 9명은 부산시 확진자의 접촉자 또는 수도권에서 입도한 여행객, 해외입국자 등이다. 도는 확진자를 격리 입원 조치하는 한편 자택과 숙소 등에 대한 방역소독 조치를 완료했다. 이와 함께 확진자 진술, 신용카드 사용 내용, 제주안심코드 등 출입자 명부 확인, 현장 폐쇄회로(CC)TV 분석 등을 통해 이동 동선과 접촉자를 파악하고 있다. 도는 휴가철 입도객 증가, 변이 바이러스의 추가 검출, 섬 지역 특성 등을 고려해 최근 급속한 확산세를 예의 주시하며 다중이용시설 집중 점검을 강화하는 등 방역 관리에 온 힘을 쏟고 있다. 현재 사회적 거리두기 2단계 조치를 시행하고 있지만, 수도권과 다른 지역의 발생 현황, 제주지역 확진자 발생 등을 종합적으로 고려해 거리두기 상향조정도 고민하고 있다. (출처=연합뉴스) 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 제 25회 부천국제판타스틱영화제, 2021 포럼 ‘Redefine Cinema: 영화를 다시 생각한다’ 개최[금요일·주말날씨] 폭염주의보에 주말 내내 비오는 제주도, 제외한 전국은 다시 맑을 것[제주문화예술재단] 문화예술교류 확대를 위한 제주문화예술재단-울산문화재단 업무협약 체결강원 춘천 먹거리 복합문화공간 16일 착공···내년 6월 오픈[Fun 喜·리뷰] 햄릿의 오필리아를 잊어라, 새로운 오필리아가 찾아온다···영화 ‘오필리아’ 7월 개봉서울시, 여름방학 맞아 환경체험교육 ‘기후위기 방탈출 게임’, 흥미롭게 다가가는 환경문제믿고 듣는 규현···딩고 ‘킬링 보이스’ 출격[달빛리뷰] 내 출퇴근길 배경음악을 바꾼 따뜻한 선물 같은 뮤지컬 ‘어쩌면 해피엔딩’투썸, 여름 시즌 겨냥해 상큼한 과일 디저트·음료 출시코로나19, 서울 종로 공연장서 관객 5명 확진···첫 사례, 공연계 비상[제주 여행] 대한항공 마일리지로 즐기는 제주도 가족여행1400명 깨지나...신규확진자 나흘 연속 최다 기록 국립한글박물관, '코로나를 이겨내는 힘, 한글과 의학' 주제로 학술대회 개최 26일부터 실외에서 마스크 완전히 벗는다 [KBS 인간극장] '우리는 행복을 연주하다' 세번째 이야기 [KBS 인간극장] - '우리는 행복을 연주하다' 두 번째 이야기 [KBS 인간극장] 우리는 행복을 연주한다 첫번째 이야기 코로나 재유행, 행안부 4차접종 14.1억 원 지원 '청춘유랑극단 시즌2', 3년만에 제주에서 공연 코로나19 재유행, 재감염 증상부터 격리, 생활지원금까지 8월부터 전국 보건소에서 코로나 검사 예약 가능...시설 방역 현황 등..(종합) 남영인 신은미 윤기원 지누박 제킴이 빛낼 제주도의 아트바캉스 'ART RACE in Jeju' Tag #코로너19 #제주도 #코로나 #확진자 백현석 기자의 다른 기사 보기 백현석 기자 bc703@naver.com 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 세종시민극단 공감 네 번째 연극, '기쁜 우리 장례식' 한국브루크너협회 플룻티스트 마린 가브리엘 초청연주 개최 2022 M소나타 시리즈 백건우 피아노 리사이틀 그라나도스 ‘고예스카스’ 록-다큐 뮤지컬 '웨이스티드', 12월 초연...정연·홍지철 등 캐스팅 [김이율 작가의 문화안녕] 연극배우 권남희를 만나다 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도내 '해바라기 가요주점' 방문자·관광객 등 7일 오후 5시 기준 15명 확진 &lt; 뉴스 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:55 (화) 실시간 뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도내 '해바라기 가요주점' 방문자·관광객 등 7일 오후 5시 기준 15명 확진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 제주도내 '해바라기 가요주점' 방문자·관광객 등 7일 오후 5시 기준 15명 확진 기자명 양기철 기자 입력 2021.07.07 17:56 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 8명 제주지역 확진자 접촉자, 4명 유증상자, 3명 타 지역 확진자 접촉자로 파악 도내 1,356개소 유흥시설 종사자 2주마다 선제 검사 실시…1차 11일까지 진행 제주도내 코로나19 검체채취 선별진료소(자료사진) [시사매거진/제주] 제주특별자치도는 7일 오후 5시 현재 15명(제주 #1305~1319번)의 코로나바이러스감염증-19(이하 코로나19) 확진자가 발생해 제주지역 누적 확진자 수는 총 1,319명으로 늘었다고 밝혔다. 이날 양성으로 확인된 15명 중 ▲8명(제주 #1305, 1307, 1308, 1313~1315, 1318, 1319번)은 제주지역 확진자의 접촉자이고, ▲3명(제주 #1309, 1316, 1317번)은 타 지역 확진자의 접촉자 ▲4명(제주 #1306, 1310, 1311, 1312번)은 코로나19 유증상이 나타나자 자발적으로 진단검사를 받고 확진된 것으로 조사됐다. 제주 1305번 확진자는 경기도 거주자로 지난 6일 확진된 1286번 확진자의 접촉자이다. 이들은 지난 4일 여행을 위해 입도한 것으로 조사됐다. 입도 다음 날인 5일부터 1286번이 몸살 등 코로나19 증상을 보이자 진단 검사를 실시해 먼저 확진 판정을 받았으며, 나머지 일행 2명도 접촉자로 분류돼 검사를 받았다. 이 과정에서 1305번 확진자가 발견됐으며, 나머지 일행 1명은 음성 판정을 받고 격리를 진행하고 있다. 1305번은 현재 몸살 증상을 보이는 것으로 파악됐다. 제주 1307·1308번 확진자는 제주지역 거주자로 지난 6일 확진된 1297번 확진자의 접촉자이다. 1307번과 1308번 확진자는 제주 1297번이 확진된 직후 진행한 검사에서 양성 판정을 받았으며, 모두 근육통 증상을 호소하고 있는 것으로 조사됐다. 제주 1309번 확진자는 서울 거주자로 지난 1일 여행을 하기 위해 제주에 왔다. 1309번은 입도 4일째인 지난 5일 서울 중구 보건소로부터 확진자와 접촉했던 사실을 전달 받고 코로나19 진단검사를 실시한 것으로 파악됐다. 제주 1313·1314번 확진자는 제주지역 거주자로 지난 6일 확진된 1298번의 가족과 지인이다. 1313번은 동거 가족이 1298번 확진자가 되자 접촉자로 분류돼 코로나19 검사를 받았다. 1314번은 1298번의 지인으로 역학조사에서 접촉자로 분류돼 검사를 진행한 결과 최종 양성으로 확인됐다. 제주 1315·1318·1319번 확진자는 제주지역 거주자로, 서귀포시 명동로 소재 ‘해바라기 가요주점’방문자이다. 이들은 동선 정보를 공개를 보고 코로나19 검사를 실시했다고 진술했다. 1318번과 1319번은 무증상 상태이지만, 1315번은 현재 발열 증상을 호소하고 있다. 제주 1316번 확진자는 강원도 춘천 거주자로 7일 확진된 춘천시 확진자의 가족이다. 1316번은 지난 2일 가족과 함께 여행을 하기 위해 입도했다. 지난 5일 춘천으로 먼저 돌아간 가족이 확진 판정을 받자 제주에서 검사를 받고 추가로 확진된 것으로 조사됐다. 제주 1317번 확진자는 서울 거주자로 지난 3일 여행을 하기 위해 입도했다. 1317번은 입도 후인 지난 6일 서울 영등포구 확진자의 접촉자로 통보받아 검사를 진행해 최종 확진됐다. 제주 1306·1310·1311·1312번 확진자의 경우는 코로나19 관련 유증상이 있어 코로나19 진단 검사를 실시한 것으로 파악됐으며, 이들의 감염 경로에 대해서는 현재 역학조사가 이뤄지고 있다. 제주도는 확진자들을 격리 입원 조치하고 진술을 확보하는 한편 신용카드 사용 내역 파악, 제주안심코드 등 출입자 명부 확인, 현장 폐쇄회로(CC)TV 분석 등을 통해 이동 동선과 접촉자를 파악하고 있다. 6일과 7일 각각 동선을 공개한 서귀포시 명동로 소재(서귀포시 명동로 13-3, 서귀동) 해바라기 가요주점(확진자 노출일시: 7월 1일(목) 오후 8시~ 2일(금) 오전 5시, 7월 2일(금) 오후 8시~ 3일(토) 오전 5시) 및 제주시 연동 소재(제주시 연동10길 3, 연동) 요술쟁이 헤어샵(확진자 노출일시: 7월 1일(목)~3일(토) 오후 7시~8시)과 관련한 검사도 병행되고 있다. 해바라기 가요주점과 관련해 앞서 접촉자로 분류된 이들을 제외하고, 6일부터 현재까지 방문 이력을 밝히며 진단검사를 받은 사람은 총 24명이다. 이중 3명은 추가로 양성 판정을 받았고, 10명은 음성으로 확인됐다. 나머지 11명에 대해서는 검사가 진행 중이다. 동선을 공개한 후 해바라기 가요주점과 관련해 7일 오후 5시 현재까지 총 12명의 확진자가 발생했다. 또 다른 확진자가 지난 1일부터 3일까지 오후 7시에서 오후 8시 사이 제주시 연동 소재 요술쟁이 헤어샵을 방문했던 것으로 파악된 만큼 관련 방문자들은 코로나19 증상 발현에 관계없이 가까운 보건소에 전화 상담 후 진단검사를 받으면 된다. 제주지역 보건소(보건소 검사 가능 시간: 09:30~17:30) 코로나19 진단검사가 아직 진행 중이지만 5시 기준 15명의 확진자가 더 추가되면서 일주일 새 제주지역은 54명의 확진자가 나온 것으로 집계됐다. 주 평균 일일 신규 확진자 수는 7.71명으로 대폭 증가했다. 정부의 사회적 거리두기 개편 지자체별 적용 방안에 따라 인구 70만 명인 제주는 한 주간 하루 평균 확진자가 7명 미만일 경우에는 1단계, 7명 이상일 경우에는 2단계가 적용된다. 임태봉 코로나방역대응추진단장은 “역학조사 등을 통해 철저히 상황을 관찰하고 있고 방역적 범주를 벗어날 경우에는 선택적 방역 대책을 추가로 발표하며 대비하고 있다”면서 “주간 발생동향을 비롯해 제주도의 의료 역량과 병상, 중증 환자 발생 수준 등 모든 양상을 종합적으로 고려해 도민들을 위한 대책을 고민하고 준비해나가겠다”고 밝혔다. 이와 함께 제주도는 도내 1,356개소(유흥주점 776, 단란주점 579·클럽 1) 유흥시설 종사자들을 대상으로 이달 1일부터 14일까지 유전자증폭(PCR) 검사를 선제적으로 시행하고 있다. 유흥시설은 업종 특성상 환기가 어려운 실내 공간에서 마스크를 착용하지 않고 이용자와 종사자간 거리두기를 준수하기 어려워 코로나19 중점관리시설로 분류되고 있다. 출입자 파악이 쉽지 않은데다 동선을 공개하더라도 신분 노출 등을 우려해 진단 검사를 꺼리면서 가족과 직장 등 일상생활에서 연쇄 감염으로 이어질 가능성도 있다. 이에 제주도는 보다 선제적인 조치가 필요하다는 판단 하에 지난 5월과 6월 불가피하게 영업시간을 제한하는 행정명령을 내린데 이어 유흥·단란주점 종사자에 대한 코로나19 진단검사를 시행한 바도 있다. 제주도내 유흥시설 관련 조치 현황 특히 최근에는 유흥업소발 확진자가 추가됨에 따라 오는 11일까지 도내 전 유흥시설 업주와 직원, 임시종사자 등에 대해서 1차 검사를 완료할 것을 재차 독려하고 있다. 7일에는 추가 공문을 통해 1차 검사 완료 후에도 2주에 한번 선제 검사를 실시할 것도 당부했다. 또한 제주도는 예방접종 유무와 상관없이 오는 8월까지 실내·외 모두 마스크 착용을 의무화했으며, 사적 모임 인원 제한도 비수도권 지역 중에서 유일하게 6명으로 제한한 상태다. 한편 7일 오후 5시 현재 제주에서 격리 중 확진자는 69명(강북구 확진자 1명 포함), 격리 해제자는 1,251명(사망 1명, 이관 3명 포함)이며, 도내 가용병상은 274병상이다. 양기철 기자 ygc9966@naver.com 새시대 새언론 시사매거진 양기철 기자 ygc9966@naver.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 포토뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광기념품 공모전, 당선작 17점 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광기념품 공모전, 당선작 17점 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광기념품 공모전, 당선작 17점 선정 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.07.10 13:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × '제주한잔 전통주 미니어처 5종 세트', '한라산1950' 금상 제주특별자치도와 제주특별자치도관광협회(회장 부동석)는 제24회 제주특별자치도 관광기념품 공모전 관련 심사 결과 당선작 17점을 선정했다고 10일 밝혔다. 금상 2점, 은상 3점, 동상 4점, 장려상 3점, 입선 5점이다. 지난 4월 21일부터 30일까지 진행된 공모에서는 총 155개 작품이 접수됐다. 이어 1차 전문가 심사, 2차 일반인 심사 및 관광.기념품 관련 업계.도외 전문가 등 10명으로 심사위원회를 구성해 본선 심사가 진행됐다. 상품성, 디자인, 창의성, 실용성 등을 종합적으로 평가한 결과 금상은 주식회사 파란공장(조남희)의 '제주한잔 전통주 미니어처 5종 세트'와 한라벗(이지현)의 '한라산1950'이 선정됐다. '제주한잔 전통주 미니어처 5종 세트'는 제주에서 생산되는 메밀 등을 원료로 사용하고 깨끗한 화산암반수를 이용해 술을 빚어 제주 전통주의 인지도 개선 및 타 지역의 전통주와 차별화가 가능하다는 점이 높이 평가 되었다. '한라산1950'은 한라산 모형의 초콜릿을 3D로 제작해 봄에는 제주 백년초, 여름에는 제주 말차, 가을에는 우도땅콩, 겨울에는 제주 감귤로 한라산의 4계절을 잘 표현해냈다는 평가를 받았다. 은상에는 '재주좋아', '제주감귤연필', '해녀를 품은 제주 즉석밥 3종 세트&amp; 벨라진 해초 누룽지' 등 3개 작품이, 동상에는 '돌테라', '제주 자수팔찌', '제주고기국수(그리운제주)', '소록차 세트' 등 4개 작품이, 장려상에는 3개 작품이, 입선에는 5개 작품이 각각 선정됐다. 제주도와 관광협회는 당선작품에 대해 이달 중 시상하는 한편, 앞으로 상품 개발촉진‧판로 지원 등 인센티브 시행 및 관광객 등을 대상으로 해당 기념품을 지속적으로 홍보해 나갈 계획이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 여행 온 관광객 잇따라 코로나19 확진...누적 1282명 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 여행 온 관광객 잇따라 코로나19 확진...누적 1282명 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도 여행 온 관광객 잇따라 코로나19 확진...누적 1282명 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.07.05 17:24 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 서울.경기도 관광객 2명 확진 제주도에 여행을 온 관광객들이 잇따라 코로나19 확진 판정을 받았다. 제주특별자치도는 5일 오후 5시 기준 2명의 확진자가 추가 발생하면서 누적 확진자는 1282명으로 집계됐다고 밝혔다. 1281번 확진자 ㄱ씨는 서울 거주자로 지난 2일 가족여행을 위해 제주를 방문했다. 그는 입도 후 몸살 등 코로나19 의심증세가 나타나자 진단검사를 받았고, 5일 확진 판정을 받아 격리됐다. 방역당국은 ㄱ씨와 함께 입도한 가족 2명에 대해서도 진단검사를 실시하는 한편, 시설격리 조치 했다. 1282번 확진자 ㄴ씨는 경기도 거주자로 지난달 21일 관광을 위해 제주도에 입도했다. 입도 직후 광주지역 코로나19 확진자의 접촉자로 통보돼 지난달 22일부터 시설격리를 이어왔으며, 격리해제 전 검사에서 최종 확진 판정을 받았다. 이에 따라 이날 오후 5시 기준 격리중인 확진자는 강북구 확진자 1명 포함 38명이며, 자가격리자는 확진자의 접촉자 206명 및 해외입국자 358명 총 564명이다. 한편 제주도는 최근 제주시내 한 의료기관에서 응급구조사가 접종을 했던 것으로 파악됨에 따라, 무면허 의료행위에 대해 자치경찰단에 수사를 의뢰했다. 제주보건소에서는 해당 의료기관의 위탁계약을 해지하고 관련자에 대한 고발조치를 했으며, 앞으로 의료기관 업무정지 등 행정 처분을 진행할 계획이다. 또 위탁 계약 해지에 따라 해당 병원에서 2차 접종을 진행할 예정이던 2117명은 제주시 접종센터로 이관해 접종을 진행할 예정이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주, 관광객 잇따라 코로나19 확진...긴급 역학조사 실시 제주, 입도객發 코로나19 확진자 잇따라...누적 '1280명' 제주, 7월 첫 주말 관광객 등 코로나19 확진자 8명 발생 제주, 관광객 등 코로나19 확진자 5명 발생...누적 1285명 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
   </si>
   <si>
     <t>[간추린 단신] 제주도, 올 상반기 우수관광사업체 14곳 지정 외 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 [간추린 단신] 제주도, 올 상반기 우수관광사업체 14곳 지정 외 입력 2021.07.05 (19:30) 수정 2021.07.05 (19:55) 뉴스7(제주) 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 이어서 간추린 뉴스입니다. 제주도는 관광지와 숙박업소 1곳, 여행사와 음식점 등 14곳을 올해 상반기 우수 관광사업체로 지정해 2년 동안 자격을 유지할 수 있도록 하고 제주도 관광정보시스템과 관계기관 홈페이지, SNS 등에서의 홍보 인센티브를 지원합니다. ‘그린 마이스 제주의 미래를 열다’ 포럼 내일 개최 제주도와 제주컨벤션뷰로는 내일(6일) 오후 2시 라마다프라자 제주호텔에서 코로나19 위기 속에 제주의 지속 가능한 마이스 산업의 길을 찾는 ‘그린 마이스 제주의 미래를 열다’ 포럼을 진행합니다. [간추린 단신] 제주도, 올 상반기 우수관광사업체 14곳 지정 외 입력 2021-07-05 19:30:29 수정2021-07-05 19:55:49 뉴스7(제주) 이어서 간추린 뉴스입니다. 제주도는 관광지와 숙박업소 1곳, 여행사와 음식점 등 14곳을 올해 상반기 우수 관광사업체로 지정해 2년 동안 자격을 유지할 수 있도록 하고 제주도 관광정보시스템과 관계기관 홈페이지, SNS 등에서의 홍보 인센티브를 지원합니다. ‘그린 마이스 제주의 미래를 열다’ 포럼 내일 개최 제주도와 제주컨벤션뷰로는 내일(6일) 오후 2시 라마다프라자 제주호텔에서 코로나19 위기 속에 제주의 지속 가능한 마이스 산업의 길을 찾는 ‘그린 마이스 제주의 미래를 열다’ 포럼을 진행합니다. 뉴스7(제주) 전체보기 기자 정보 KBS 지역국 KBS 지역국의 기사 모음 댓글 좋아요 공유하기 제주-주요뉴스 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
   </si>
   <si>
-    <t>제주도, 관광지.숙박.여행.음식업 14개소 우수관광사업체 지정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광지.숙박.여행.음식업 14개소 우수관광사업체 지정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 관광지.숙박.여행.음식업 14개소 우수관광사업체 지정 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.07.05 13:57 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 올해 상반기 14개 업체를 우수관광사업체로 지정했다고 5일 밝혔다. 업종별로는 관광지 10곳, 숙박업 1곳, 여행업 2곳, 음식업 1곳이다. 제주도는 응모한 관광사업체의 신청서류 등 자격요건을 심사한 후, 전문가들로 구성된 평가위원들의 현장평가 결과 90점 이상 취득한 업체를 대상으로 우수관광사업체 평정위원회 심의를 거쳐 지정했다고 밝혔다. 우수관광사업체 지정기간은 2년이다. 이번에 지정된 14개 업체에는 우수관광사업체 지정서 및 인증패가 수여되며, 홍보지원금 80만 원이 지급된다. 또 관광 정보시스템 및 유관기관 홈페이지, SNS(블로그, 인스타그램, 페이스북, 유튜브), 리플릿, 지도 등 홍보물을 통한 홍보 인센티브도 주어진다. 김승배 제주도 관광국장은 “코로나19 장기화에 따른 관광사업체의 어려운 경영 환경 속에서도 우수한 관광사업체를 발굴해 제주관광에 대한 신뢰도를 확보해 나가겠다”며 “온라인마켓 탐나오 입점 및 구매 이벤트 등 선정된 업체에 대한 인센티브 확대 등 다양한 지원방안을 모색해 나가겠다”고 밝혔다. 한편, 제주도는 자율적 경쟁을 통한 품질 향상 및 서비스 개선 등 관광사업체의 경쟁력 강화를 위해 매년 상·하반기 우수관광사업체를 공모해 지정하고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 하반기 정기인사...특별자치행정국장-윤진남, 관광국장-김승배 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 11:16 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 하반기 정기인사...특별자치행정국장-윤진남, 관광국장-김승배 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도 하반기 정기인사...특별자치행정국장-윤진남, 관광국장-김승배 기자명 진순현 기자 입력 2021.07.01 19:26 수정 2021.07.01 20:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 승진 106명, 전보 387명, 신규 임용 31명 총 524명 맨 윗줄 왼쪽부터 양기철 의회사무처장, 윤진남 특별자치행정국장 직무대리, 김승배 관광국장 직무대리, 김재철 교통항공국장 직무대리, 두번째 줄 허문정 공항확충지원단장, 장문봉 감사위원회 사무국장, 양인정 인재개발원 직무대리, 강만관 세계유산본부장, 세번째 줄 김익천 JDC 파견, 고영만 소통담당관, 한웅 서귀포시 부시장, 한영식 비서실장 제주특별자치도의 올해 하반기 정기인사가 1일 단행된 가운데, 민선7기 후반기 안정적 도정운영을 목표로 대폭 교체가 이뤄졌다. 올해 하반기 인사는 총 524명으로, 승진 106명, 전보 387명, 신규 임용 31명이다. 지방행정고시 1회 출신으로 제주국제자유도시개발센터(JDC)에 파견 나갔던 양기철 이사관이 제주도의회 사무처장으로 복귀했다. 특별자치행정국장 직무대리에 윤진남 자치행정과장, 관광국장 직무대리로 김승배 관광정책과장이 자체 승진됐다. 교통항공국장 직무대리로는 김재철 건축지적과장, 공항확충지원단장에 허문정 안전정책과장, 세계유산본부장에 강만관 감사위원회 사무국장이 임명됐으며, 감사위 사무국장에는 장문봉 감사위 감사과장이 자리를 꿰찼다. 인재개발원장 직무대리에 양인정 복지정책과장, 소통담당관에 고영만 청렴혁신담당관, 청렴혁신담당관은 김병훈 감사위 심의과장, 도시디자인담당관 직무대리로 박재관 공공건축팀장, 김익천 동물방역과장은 부이사관 승진과 함께 JDC로 파견가고, 서귀포시 부시장 직무대리에는 한웅 비서실장, 비서실장 자리에는 한영식 총무과 인사팀장이 서기관으로 승진하면서 각각 발령됐다. 과장급에서도 대대적인 교체가 이뤄졌다. 안정정책과장에 김길범 서기관, 자치행정과장 오임수 서기관, 회계과장 이인옥 서기관, 관광정책과장 변영근 서기관, 평생교육과장 고영철 서기관, 문화정책과장 김미영 서기관, 환경정책과장에 김시완 서기관이 임명됐다. 축산정책과장에는 강윤옥 서기관 승진으로 자리를 꿰찼고, 현민철 건설과장 직무대리는 승진과 함께 직무대리 꼬리표를 뗐다. 또한 저탄소정책과장 직무대리에는 고윤성 사무관, 건축지적과장 직무대리에 강태환 사무관, 감귤진흥과장 직무대리 양필성 사무관, 동물방역과장 직무대리 김은주 사무관, 생활환경과장 직무대리 강명균 사무관, 통상물류과장 직무대리에 조선희 사무관이 각각 발령됐다. 제주도는 이번 인사는 청정과 공존의 가치를 지키며 제주형 뉴딜 지속 추진, 지역경제 활력화 등의 민선7기 후반기 도정운영 성과 창출, 코로나19 방역 대응에 중점을 뒀다고 밝혔다. 특히 민선7기 후반기 도정 핵심과제의 성과 창출을 위한 인력을 적재적소에 배치하는 한편, 역량을 갖춘 젊은 세대를 전진 배치했다고 설명했다. 진순현 기자 jinjin3808@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 오늘의 주요뉴스 [관광] 제주관광 회복 가속도…코로나19 이전 수준 회복 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>‘한라산1950’ 등 제주도관광기념품 공모전 금상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 ‘한라산1950’ 등 제주도관광기념품 공모전 금상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 ‘한라산1950’ 등 제주도관광기념품 공모전 금상 김지우 기자 승인 2021.07.11 13:57 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주한잔 전통주 미니어처 5종 세트(왼쪽)와 한라산1950의 모습. 제주특별자치도와 제주도관광협회(회장 부동석)는 ‘제24회 제주도 관광기념품 공모전’ 당선작 17점을 선정했다고 11일 밝혔다. 금상은 주식회사 파란공장(조남희)의 ‘제주한잔 전통주 미니어처 5종 세트’와 한라벗(이지현)의 ‘한라산1950’이 선정됐다. ‘제주한잔 전통주 미니어처 5종 세트’는 제주에서 생산되는 메밀 등을 원료로 사용하고 깨끗한 화산암반수를 이용해 술을 빚어 제주 전통주의 인지도 개선 및 타 지역의 전통주와 차별화가 가능하다는 점이 높이 평가됐다. ‘한라산1950’은 한라산 모형의 초콜릿을 3D로 제작해 봄에는 백년초, 여름에는 말차, 가을에는 우도땅콩, 겨울에는 감귤로 한라산의 사계절을 잘 표현해냈다는 평가를 받았다. 은상에는 ‘재주좋아’, ‘제주감귤연필’, ‘해녀를 품은 제주 즉석밥 3종 세트&amp; 벨라진 해초 누룽지’ 등 3개 작품이, 동상에는 ‘돌테라’, ‘제주 자수팔찌’, ‘제주고기국수(그리운제주)’, ‘소록차 세트’ 등 4개 작품이, 장려상에는 3개 작품이, 입선에는 5개 작품이 각각 선정됐다. 제주도와 관광협회는 상품 개발 촉진과 판로 지원 등 인센티브를 시행하고 관광객 등을 대상으로 해당 기념품을 지속적으로 홍보할 예정이다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도 하반기 정기인사...특별자치행정국장-윤진남, 관광국장-김승배 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 하반기 정기인사...특별자치행정국장-윤진남, 관광국장-김승배 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도 하반기 정기인사...특별자치행정국장-윤진남, 관광국장-김승배 기자명 진순현 기자 입력 2021.07.01 19:26 수정 2021.07.01 20:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 승진 106명, 전보 387명, 신규 임용 31명 총 524명 맨 윗줄 왼쪽부터 양기철 의회사무처장, 윤진남 특별자치행정국장 직무대리, 김승배 관광국장 직무대리, 김재철 교통항공국장 직무대리, 두번째 줄 허문정 공항확충지원단장, 장문봉 감사위원회 사무국장, 양인정 인재개발원 직무대리, 강만관 세계유산본부장, 세번째 줄 김익천 JDC 파견, 고영만 소통담당관, 한웅 서귀포시 부시장, 한영식 비서실장 제주특별자치도의 올해 하반기 정기인사가 1일 단행된 가운데, 민선7기 후반기 안정적 도정운영을 목표로 대폭 교체가 이뤄졌다. 올해 하반기 인사는 총 524명으로, 승진 106명, 전보 387명, 신규 임용 31명이다. 지방행정고시 1회 출신으로 제주국제자유도시개발센터(JDC)에 파견 나갔던 양기철 이사관이 제주도의회 사무처장으로 복귀했다. 특별자치행정국장 직무대리에 윤진남 자치행정과장, 관광국장 직무대리로 김승배 관광정책과장이 자체 승진됐다. 교통항공국장 직무대리로는 김재철 건축지적과장, 공항확충지원단장에 허문정 안전정책과장, 세계유산본부장에 강만관 감사위원회 사무국장이 임명됐으며, 감사위 사무국장에는 장문봉 감사위 감사과장이 자리를 꿰찼다. 인재개발원장 직무대리에 양인정 복지정책과장, 소통담당관에 고영만 청렴혁신담당관, 청렴혁신담당관은 김병훈 감사위 심의과장, 도시디자인담당관 직무대리로 박재관 공공건축팀장, 김익천 동물방역과장은 부이사관 승진과 함께 JDC로 파견가고, 서귀포시 부시장 직무대리에는 한웅 비서실장, 비서실장 자리에는 한영식 총무과 인사팀장이 서기관으로 승진하면서 각각 발령됐다. 과장급에서도 대대적인 교체가 이뤄졌다. 안정정책과장에 김길범 서기관, 자치행정과장 오임수 서기관, 회계과장 이인옥 서기관, 관광정책과장 변영근 서기관, 평생교육과장 고영철 서기관, 문화정책과장 김미영 서기관, 환경정책과장에 김시완 서기관이 임명됐다. 축산정책과장에는 강윤옥 서기관 승진으로 자리를 꿰찼고, 현민철 건설과장 직무대리는 승진과 함께 직무대리 꼬리표를 뗐다. 또한 저탄소정책과장 직무대리에는 고윤성 사무관, 건축지적과장 직무대리에 강태환 사무관, 감귤진흥과장 직무대리 양필성 사무관, 동물방역과장 직무대리 김은주 사무관, 생활환경과장 직무대리 강명균 사무관, 통상물류과장 직무대리에 조선희 사무관이 각각 발령됐다. 제주도는 이번 인사는 청정과 공존의 가치를 지키며 제주형 뉴딜 지속 추진, 지역경제 활력화 등의 민선7기 후반기 도정운영 성과 창출, 코로나19 방역 대응에 중점을 뒀다고 밝혔다. 특히 민선7기 후반기 도정 핵심과제의 성과 창출을 위한 인력을 적재적소에 배치하는 한편, 역량을 갖춘 젊은 세대를 전진 배치했다고 설명했다. 진순현 기자 jinjin3808@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 올 상반기 우수관광사업체 14개소 지정 &lt; 문화 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 올 상반기 우수관광사업체 14개소 지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 제주도, 올 상반기 우수관광사업체 14개소 지정 기자명 강동우 기자 입력 2021.07.05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광지 10곳·숙박업 1곳·여행업 2곳·음식업 1곳 공모 통해 최종 선정 지정기간 2년 … 지정서·인증패 수여 및 온라인 홍보 등 인센티브 제공 2021년도 상반기 우수관광사업체로 관광지 10곳고 숙박업소 1곳, 여행사 2곳, 음식업 1곳 등 14개가 지정됐다. 제주특별자치도는 5일 올해 상반기 관광지, 숙박업, 여행업, 음식업 등 4개 분야 14개 업체를 우수관광사업체로 지정했다고 밝혔다. 제주도는 자율적 경쟁을 통한 품질 향상 및 서비스 개선 등 관광사업체의 경쟁력 강화를 위해 매년 상·하반기 우수관광사업체를 공모해 지정하고 있다. 제주도는 응모한 관광사업체의 신청서류 등 자격요건을 심사한 후, 전문가들로 구성된 평가위원들의 현장평가 결과 90점 이상 취득한 업체를 대상으로 우수관광사업체 평정위원회 심의를 거쳐 지정하고 있다. 우수관광사업체 지정기간은 2년(2021. 7. 1.~2023. 6. 30.)이다. 14개 업체에는 우수관광사업체 지정서 및 인증패가 수여되며, 홍보지원금 80만원이 지급된다. 제주도는 또한 관광 정보시스템 및 유관기관 홈페이지, SNS(블로그, 인스타그램, 페이스북, 유튜브), 리플릿, 지도 등 홍보물을 통한 홍보 인센티브도 주어진다. 김승배 도 관광국장은 “코로나19 장기화에 따른 관광사업체의 어려운 경영 환경 속에서도 우수한 관광사업체를 발굴해 제주관광에 대한 신뢰도를 확보해 나가겠다”면서  “온라인마켓 탐나오 입점 및 구매 이벤트 등 선정된 업체에 대한 인센티브 확대 등 다양한 지원방안을 모색해 나가겠다”고 덧붙였다 강동우 기자 kdw2312@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광지.숙박.여행.음식업 14개소 우수관광사업체 지정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광지.숙박.여행.음식업 14개소 우수관광사업체 지정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 관광지.숙박.여행.음식업 14개소 우수관광사업체 지정 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.07.05 13:57 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 올해 상반기 14개 업체를 우수관광사업체로 지정했다고 5일 밝혔다. 업종별로는 관광지 10곳, 숙박업 1곳, 여행업 2곳, 음식업 1곳이다. 제주도는 응모한 관광사업체의 신청서류 등 자격요건을 심사한 후, 전문가들로 구성된 평가위원들의 현장평가 결과 90점 이상 취득한 업체를 대상으로 우수관광사업체 평정위원회 심의를 거쳐 지정했다고 밝혔다. 우수관광사업체 지정기간은 2년이다. 이번에 지정된 14개 업체에는 우수관광사업체 지정서 및 인증패가 수여되며, 홍보지원금 80만 원이 지급된다. 또 관광 정보시스템 및 유관기관 홈페이지, SNS(블로그, 인스타그램, 페이스북, 유튜브), 리플릿, 지도 등 홍보물을 통한 홍보 인센티브도 주어진다. 김승배 제주도 관광국장은 “코로나19 장기화에 따른 관광사업체의 어려운 경영 환경 속에서도 우수한 관광사업체를 발굴해 제주관광에 대한 신뢰도를 확보해 나가겠다”며 “온라인마켓 탐나오 입점 및 구매 이벤트 등 선정된 업체에 대한 인센티브 확대 등 다양한 지원방안을 모색해 나가겠다”고 밝혔다. 한편, 제주도는 자율적 경쟁을 통한 품질 향상 및 서비스 개선 등 관광사업체의 경쟁력 강화를 위해 매년 상·하반기 우수관광사업체를 공모해 지정하고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>‘한라산1950’ 등 제주도관광기념품 공모전 금상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 ‘한라산1950’ 등 제주도관광기념품 공모전 금상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 ‘한라산1950’ 등 제주도관광기념품 공모전 금상 김지우 기자 승인 2021.07.11 13:57 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주한잔 전통주 미니어처 5종 세트(왼쪽)와 한라산1950의 모습. 제주특별자치도와 제주도관광협회(회장 부동석)는 ‘제24회 제주도 관광기념품 공모전’ 당선작 17점을 선정했다고 11일 밝혔다. 금상은 주식회사 파란공장(조남희)의 ‘제주한잔 전통주 미니어처 5종 세트’와 한라벗(이지현)의 ‘한라산1950’이 선정됐다. ‘제주한잔 전통주 미니어처 5종 세트’는 제주에서 생산되는 메밀 등을 원료로 사용하고 깨끗한 화산암반수를 이용해 술을 빚어 제주 전통주의 인지도 개선 및 타 지역의 전통주와 차별화가 가능하다는 점이 높이 평가됐다. ‘한라산1950’은 한라산 모형의 초콜릿을 3D로 제작해 봄에는 백년초, 여름에는 말차, 가을에는 우도땅콩, 겨울에는 감귤로 한라산의 사계절을 잘 표현해냈다는 평가를 받았다. 은상에는 ‘재주좋아’, ‘제주감귤연필’, ‘해녀를 품은 제주 즉석밥 3종 세트&amp; 벨라진 해초 누룽지’ 등 3개 작품이, 동상에는 ‘돌테라’, ‘제주 자수팔찌’, ‘제주고기국수(그리운제주)’, ‘소록차 세트’ 등 4개 작품이, 장려상에는 3개 작품이, 입선에는 5개 작품이 각각 선정됐다. 제주도와 관광협회는 상품 개발 촉진과 판로 지원 등 인센티브를 시행하고 관광객 등을 대상으로 해당 기념품을 지속적으로 홍보할 예정이다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
   <si>
     <t>제주도·제주관광공사, 여름시즌 제주여행 계획 설문조사 결과 발표 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 트렌드 이슈 전체보기 트렌드 | 분석 지수 | 리포트 사회 | 정치 이슈탐색 인터뷰 통계n산업 테크 | IT 콘텐츠 목록 제주도·제주관광공사, 여름시즌 제주여행 계획 설문조사 결과 발표 여름휴가, 제주의 청정한 자연환경 즐기러 8월에 떠날 계획 3명 정도의 가족·친지와 함께 3박 4일 간 40만원(1인) 정도 지출 예상 2021-07-26 15:03:43							, 수정 : 2021-07-26 21:35:17							 | 이상인 선임기자 [티티엘뉴스] 제주특별자치도와 제주관광공사(사장 고은숙)는 26일, ‘여름시즌 제주여행 계획 설문조사’ 결과를 발표했다. 이에 따르면, 올 여름 휴가는 8월에 3명 정도의 가족·친지와 함께 3박 4일 간 여가와 위락과 휴식을 위해 40만원(1인) 정도의 비용을 들여 청정한 자연환경을 지닌 제주도로 다녀올 계획인 것으로 나타났다. ▲제주여행 계획 설문조사 인포그래픽 여름시즌 제주여행을 계획하는 시기로 7월과 8월을 선택한 비율이 각각 14.2%와 85.8%를 차지해 8월 여행계획의 응답률이 월등히 높은 비율을 차지했다. 이는 코로나19 확진자가 급속도로 증가함에 따라 여름휴가 시즌의 여행을 8월로 고려하고 있는 것으로 나타났다. 제주여행을 선택한 이유로는 청정한 자연환경(66.9%)이 높은 비중을 차지하고 있으며, 그 다음으로 해외여행 대체지로 적절(31.1%)의 응답률이 높았다. 이는 지난 2020년 가을시즌 제주여행 계획 설문조사(이하 가을시즌 조사)의 동일문항에서도 1위 청정한 자연환경(56.5%), 2위 해외여행 대체지(28.8%)로 조사됐으며, 2020년 연말연시 제주여행 계획 설문조사(이하 연말연시 조사)의 동일문항에서도 1위 청정한 자연환경(59.4%), 2위 해외여행 대체지(30.8%)로 나타나는 등 높은 비율을 차지하고 있어 제주여행을 선택하는 주요한 요인으로 분석되고 있다. 이 밖에도 관광 편의성(26.3%), 전염병 안전지역(24.4%), 이동 거리(19.7%), 여행 비용(19.0%), 실외 관광활동의 다양성(12.5%) 등으로 제주선택의 이유를 꼽았다. 제주여행 목적으로는 여가․위락․휴식(62.1%)을 가장 많이 선택하는 것으로 나타났으며, 자연경관 감상 및 문화체험(17.7%), 레저/스포츠(8.7%) 등의 순으로 조사됐다. 코로나19 상황 속 제주여행 중 위생에서 우려되는 부분은 숙소의 위생(44.8%)이 가장 많았으며, 음식점의 위생(43.1%), 렌터카의 위생(21.0%)이 그 뒤를 이었다. 2020년 가을시즌 조사의 동일문항에선 숙소의 위생은 50.9%, 음식점의 위생은 38.3%, 렌터카의 위생은 27.0%로 나타났고, 20년 연말연시 조사에서는 숙소의 위생이 47.6%, 음식점의 위생이 42.1%, 렌터카의 위생이 22.9%로 나타났다. 관광객은 지속해서 숙소, 음식점, 렌터카 순으로 위생적인 측면에서 우려하는 것으로 조사됐으며, 숙소의 위생에 대한 우려는 줄어들고 있지만, 음식점의 위생, 렌터카의 위생에 대한 우려는 늘고 있는 것으로 나타났다. 제주여행의 예상 체류기간은 평균 3.85일, 1인당 지출 비용(항공료 제외)은 평균 392,797원을 예상하는 것으로 나타났다. 동반 인원수는 평균 2.99명으로 동반인은 가족/친지(70.9%)가 친구/연인(26.2%), 혼자(5.0%), 직장동료(1.6%) 등과 비교해 압도적으로 높았다. 체류기간(4.17일→3.85일), 1인당 지출 비용(416,085원→392,797원), 동반인원수(3.52명→2.99명)는 2020년 제주 방문관광객 실태조사 보다 다소 낮게 나타나, 예년 대비 휴가 기간이 짧아지고 소비지출이 감소할 것으로 분석된다. 주요 교통수단으로는 렌터카(86.5%)가 가장 높은 수치를 기록했으며, 버스(6.5%), 택시(5.3%), 전세버스(1.1%)가 뒤를 잇는 등 코로나19 영향으로 대면접촉을 최소화하는 개별이동에 대한 선호가 높아지고 있음을 보여주고 있다. 제주여행에서의 선호활동으로는 자연경관 감상(73.1%)과 식도락(62.6%)이 1, 2위를 차지했으며, 산/오름/올레 트레킹(50.5%), 해변활동(37.6%), 박물관/테마공원 방문(29.2%)이 뒤를 이었다. 이는 코로나를 피해 제주의 청정한 자연환경을 즐기고 힐링할 수 있는 활동으로 선택하는 경향을 보이고 있다. 방문 예정 지역으로는 성산일출봉을 선택한 비율이 53.3%로 가장 높았으며, 중문관광단지 45.7%, 용담해안도로 인근 39.6%, 오름/한라산 36.3%, 이중섭 거리/서귀포 올레시장 31.1%, 협재-금릉해변(한림읍) 28.7%, 곽지-한담해변(애월읍) 27.6%, 함덕해변(조천읍) 26.8%, 월정-세화해변(구좌읍) 22.8%, 우도 21.7%, 표선해변(표선면) 21.6%, 마을관광(저지리, 가시리 등) 13.5% 순으로 나타났다. 본 조사는 제주 방문 관광객의 증가세 현황에 맞춰 의사결정 과정과 제주 여행 선택 이유 등의 조사가 필요함에 따라 여름시즌 제주 여행에 대한 수요를 파악하고자 실시됐다. 또한 제주 관광객의 여행 행태를 예측하고, 코로나19로 인한 행동 및 인식 변화를 파악함으로써 제주관광이 나아갈 방향에 대한 시사점을 제공하고자 추진됐다. 제주관광공사 관계자는 “안전에 대한 불안감 속에서도 관광 욕구는 지속되고 있어 안전한 휴가를 즐기기 위해 밀집 시기, 밀집 지역은 피하고 청정한 자연에서 가족과 함께 야외활동을 선호하는 경향이 뚜렷하게 조사되고 있다”며, “공사는 제주를 찾는 관광객이 비대면, 거리두기 등 개개인의 방역 수칙을 준수해 안전한 여행이 될 수 있도록 지속적으로 모니터링하고 조사결과를 제공해 나갈 것”이라고 밝혔다. 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 제주관광공사, 제주지방해양경찰청과 손잡고 제주 해변 360VR 콘텐츠 리스트 53개 공개 제주특별자치도·제주관광공사, 자격증 필기시험 대비반 수강생 모집 제주관광공사, 창립 13주년 기념식 개최…더 큰 도약 다짐 제주관광공사, ‘그린 제주 캠페인’ 추진 제주관광공사, 2021 제주 웰니스 관광지 인증 공모 시행 제주관광공사, ‘제주에 있는 척’ 캠페인 900만 이상 시청 반응 뜨거워 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
@@ -437,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +699,328 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
